--- a/BackTest/2019-10-31 BackTest MITH.xlsx
+++ b/BackTest/2019-10-31 BackTest MITH.xlsx
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
@@ -2161,14 +2161,12 @@
         <v>15.16666666666669</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2208,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
@@ -2243,14 +2241,12 @@
         <v>15.13333333333335</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2284,14 +2280,12 @@
         <v>15.13333333333335</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2325,14 +2319,12 @@
         <v>15.16666666666669</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2366,14 +2358,12 @@
         <v>15.23333333333336</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2407,14 +2397,12 @@
         <v>15.30000000000002</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2448,14 +2436,12 @@
         <v>15.40000000000002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2489,14 +2475,12 @@
         <v>15.53333333333335</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>

--- a/BackTest/2019-10-31 BackTest MITH.xlsx
+++ b/BackTest/2019-10-31 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D2" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E2" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F2" t="n">
-        <v>5793.9968</v>
+        <v>8602.6721</v>
       </c>
       <c r="G2" t="n">
-        <v>15.60000000000001</v>
+        <v>15.69166666666669</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>15.6</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E3" t="n">
         <v>15.6</v>
       </c>
       <c r="F3" t="n">
-        <v>40000</v>
+        <v>5793.9968</v>
       </c>
       <c r="G3" t="n">
-        <v>15.63333333333335</v>
+        <v>15.68666666666669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D4" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E4" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>40000</v>
       </c>
       <c r="G4" t="n">
-        <v>15.66666666666668</v>
+        <v>15.68000000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C5" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D5" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E5" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F5" t="n">
-        <v>3450.0892</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>15.63333333333335</v>
+        <v>15.67333333333336</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>15.6</v>
       </c>
       <c r="F6" t="n">
-        <v>6378.2051</v>
+        <v>3450.0892</v>
       </c>
       <c r="G6" t="n">
-        <v>15.63333333333335</v>
+        <v>15.66666666666669</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>15.6</v>
       </c>
       <c r="F7" t="n">
-        <v>3360.7057</v>
+        <v>6378.2051</v>
       </c>
       <c r="G7" t="n">
-        <v>15.60000000000001</v>
+        <v>15.65833333333336</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>15.6</v>
       </c>
       <c r="F8" t="n">
-        <v>3017.4994</v>
+        <v>3360.7057</v>
       </c>
       <c r="G8" t="n">
-        <v>15.60000000000001</v>
+        <v>15.65000000000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>15.6</v>
       </c>
       <c r="F9" t="n">
-        <v>6982.5006</v>
+        <v>3017.4994</v>
       </c>
       <c r="G9" t="n">
-        <v>15.60000000000001</v>
+        <v>15.64166666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>15.6</v>
       </c>
       <c r="F10" t="n">
-        <v>29200</v>
+        <v>6982.5006</v>
       </c>
       <c r="G10" t="n">
-        <v>15.60000000000001</v>
+        <v>15.63500000000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C11" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D11" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E11" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F11" t="n">
-        <v>36</v>
+        <v>29200</v>
       </c>
       <c r="G11" t="n">
-        <v>15.63333333333335</v>
+        <v>15.63000000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>15.63333333333335</v>
+        <v>15.62833333333336</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>15.6</v>
       </c>
       <c r="F13" t="n">
-        <v>12820.5128</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>15.63333333333335</v>
+        <v>15.62333333333336</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>15.6</v>
       </c>
       <c r="F14" t="n">
-        <v>5641.1863</v>
+        <v>12820.5128</v>
       </c>
       <c r="G14" t="n">
-        <v>15.60000000000001</v>
+        <v>15.62000000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>15.6</v>
       </c>
       <c r="F15" t="n">
-        <v>21897.136</v>
+        <v>5641.1863</v>
       </c>
       <c r="G15" t="n">
-        <v>15.60000000000001</v>
+        <v>15.61333333333336</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>15.6</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D16" t="n">
         <v>15.6</v>
       </c>
       <c r="E16" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F16" t="n">
-        <v>4645.587</v>
+        <v>21897.136</v>
       </c>
       <c r="G16" t="n">
-        <v>15.56666666666668</v>
+        <v>15.61000000000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C17" t="n">
         <v>15.5</v>
       </c>
       <c r="D17" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E17" t="n">
         <v>15.5</v>
       </c>
       <c r="F17" t="n">
-        <v>3071.476</v>
+        <v>4645.587</v>
       </c>
       <c r="G17" t="n">
-        <v>15.53333333333335</v>
+        <v>15.60833333333336</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>15.5</v>
       </c>
       <c r="C18" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D18" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E18" t="n">
         <v>15.5</v>
       </c>
       <c r="F18" t="n">
-        <v>2264.817</v>
+        <v>3071.476</v>
       </c>
       <c r="G18" t="n">
-        <v>15.53333333333335</v>
+        <v>15.6066666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>15.5</v>
       </c>
       <c r="F19" t="n">
-        <v>738.7746</v>
+        <v>2264.817</v>
       </c>
       <c r="G19" t="n">
-        <v>15.56666666666668</v>
+        <v>15.6066666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C20" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D20" t="n">
         <v>15.6</v>
@@ -1075,10 +1075,10 @@
         <v>15.5</v>
       </c>
       <c r="F20" t="n">
-        <v>54924.7622</v>
+        <v>738.7746</v>
       </c>
       <c r="G20" t="n">
-        <v>15.56666666666668</v>
+        <v>15.6066666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C21" t="n">
         <v>15.5</v>
       </c>
       <c r="D21" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E21" t="n">
         <v>15.5</v>
       </c>
       <c r="F21" t="n">
-        <v>31130.739</v>
+        <v>54924.7622</v>
       </c>
       <c r="G21" t="n">
-        <v>15.53333333333335</v>
+        <v>15.6066666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>15.5</v>
       </c>
       <c r="F22" t="n">
-        <v>7274.502</v>
+        <v>31130.739</v>
       </c>
       <c r="G22" t="n">
-        <v>15.50000000000001</v>
+        <v>15.60500000000003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C23" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D23" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E23" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>7274.502</v>
       </c>
       <c r="G23" t="n">
-        <v>15.53333333333335</v>
+        <v>15.60500000000003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>15.6</v>
       </c>
       <c r="F24" t="n">
-        <v>1623.2051</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>15.56666666666668</v>
+        <v>15.6066666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>15.6</v>
       </c>
       <c r="F25" t="n">
-        <v>3000</v>
+        <v>1623.2051</v>
       </c>
       <c r="G25" t="n">
-        <v>15.60000000000001</v>
+        <v>15.60833333333336</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C26" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D26" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E26" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F26" t="n">
-        <v>40263.0128</v>
+        <v>3000</v>
       </c>
       <c r="G26" t="n">
-        <v>15.56666666666668</v>
+        <v>15.60833333333336</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>15.5</v>
       </c>
       <c r="F27" t="n">
-        <v>26600</v>
+        <v>40263.0128</v>
       </c>
       <c r="G27" t="n">
-        <v>15.53333333333335</v>
+        <v>15.60833333333336</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>15.5</v>
       </c>
       <c r="C28" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D28" t="n">
         <v>15.5</v>
       </c>
       <c r="E28" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F28" t="n">
-        <v>55433.074</v>
+        <v>26600</v>
       </c>
       <c r="G28" t="n">
-        <v>15.46666666666668</v>
+        <v>15.6066666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C29" t="n">
         <v>15.4</v>
       </c>
       <c r="D29" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E29" t="n">
         <v>15.4</v>
       </c>
       <c r="F29" t="n">
-        <v>73811.22870000001</v>
+        <v>55433.074</v>
       </c>
       <c r="G29" t="n">
-        <v>15.43333333333334</v>
+        <v>15.60500000000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F30" t="n">
-        <v>4711.7168</v>
+        <v>73811.22870000001</v>
       </c>
       <c r="G30" t="n">
-        <v>15.36666666666668</v>
+        <v>15.60333333333336</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>15.3</v>
       </c>
       <c r="F31" t="n">
-        <v>65922.1489</v>
+        <v>4711.7168</v>
       </c>
       <c r="G31" t="n">
-        <v>15.33333333333334</v>
+        <v>15.59833333333336</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C32" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D32" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E32" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F32" t="n">
-        <v>65330.3243</v>
+        <v>65922.1489</v>
       </c>
       <c r="G32" t="n">
-        <v>15.33333333333334</v>
+        <v>15.59166666666669</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>15.4</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0003</v>
+        <v>65330.3243</v>
       </c>
       <c r="G33" t="n">
-        <v>15.36666666666668</v>
+        <v>15.58666666666669</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C34" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D34" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E34" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F34" t="n">
-        <v>45147.0402</v>
+        <v>0.0003</v>
       </c>
       <c r="G34" t="n">
-        <v>15.36666666666668</v>
+        <v>15.58166666666669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C35" t="n">
         <v>15.3</v>
       </c>
       <c r="D35" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E35" t="n">
         <v>15.3</v>
       </c>
       <c r="F35" t="n">
-        <v>5002.9293</v>
+        <v>45147.0402</v>
       </c>
       <c r="G35" t="n">
-        <v>15.33333333333334</v>
+        <v>15.57500000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C36" t="n">
         <v>15.3</v>
       </c>
       <c r="D36" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E36" t="n">
         <v>15.3</v>
       </c>
       <c r="F36" t="n">
-        <v>26569.5347</v>
+        <v>5002.9293</v>
       </c>
       <c r="G36" t="n">
-        <v>15.30000000000001</v>
+        <v>15.56833333333335</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>15.3</v>
       </c>
       <c r="C37" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D37" t="n">
         <v>15.3</v>
       </c>
       <c r="E37" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F37" t="n">
-        <v>157592.0125</v>
+        <v>26569.5347</v>
       </c>
       <c r="G37" t="n">
-        <v>15.26666666666668</v>
+        <v>15.56166666666669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C38" t="n">
         <v>15.2</v>
       </c>
       <c r="D38" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E38" t="n">
         <v>15.2</v>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>157592.0125</v>
       </c>
       <c r="G38" t="n">
-        <v>15.23333333333335</v>
+        <v>15.55333333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>15.2</v>
       </c>
       <c r="F39" t="n">
-        <v>78313.3931</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>15.20000000000002</v>
+        <v>15.54666666666669</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C40" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D40" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E40" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F40" t="n">
-        <v>7430.8411</v>
+        <v>78313.3931</v>
       </c>
       <c r="G40" t="n">
-        <v>15.16666666666669</v>
+        <v>15.53833333333335</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C41" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D41" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E41" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F41" t="n">
-        <v>49900</v>
+        <v>7430.8411</v>
       </c>
       <c r="G41" t="n">
-        <v>15.16666666666669</v>
+        <v>15.52833333333335</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>15.2</v>
       </c>
       <c r="F42" t="n">
-        <v>30000</v>
+        <v>49900</v>
       </c>
       <c r="G42" t="n">
-        <v>15.16666666666669</v>
+        <v>15.52000000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C43" t="n">
         <v>15.2</v>
@@ -1877,13 +1877,13 @@
         <v>15.2</v>
       </c>
       <c r="E43" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F43" t="n">
-        <v>68400</v>
+        <v>30000</v>
       </c>
       <c r="G43" t="n">
-        <v>15.20000000000002</v>
+        <v>15.51166666666669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C44" t="n">
         <v>15.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>15.1</v>
       </c>
       <c r="D44" t="n">
         <v>15.2</v>
@@ -1915,10 +1915,10 @@
         <v>15.1</v>
       </c>
       <c r="F44" t="n">
-        <v>3000</v>
+        <v>68400</v>
       </c>
       <c r="G44" t="n">
-        <v>15.16666666666669</v>
+        <v>15.50333333333335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C45" t="n">
         <v>15.1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>15.2</v>
       </c>
       <c r="D45" t="n">
         <v>15.2</v>
@@ -1950,348 +1950,328 @@
         <v>15.1</v>
       </c>
       <c r="F45" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>15.49333333333335</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F46" t="n">
         <v>4117.2271</v>
       </c>
-      <c r="G45" t="n">
-        <v>15.16666666666669</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="G46" t="n">
+        <v>15.48500000000002</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C47" t="n">
         <v>15.1</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="D47" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>128</v>
+      </c>
+      <c r="G47" t="n">
+        <v>15.47666666666669</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>45.0263</v>
+      </c>
+      <c r="G48" t="n">
+        <v>15.47000000000002</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>99.1447</v>
+      </c>
+      <c r="G49" t="n">
+        <v>15.46500000000002</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>15.45833333333335</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" t="n">
+        <v>15.45333333333335</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1810.7583</v>
+      </c>
+      <c r="G52" t="n">
+        <v>15.44500000000002</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>91248.61840000001</v>
+      </c>
+      <c r="G53" t="n">
+        <v>15.43666666666669</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F46" t="n">
-        <v>128</v>
-      </c>
-      <c r="G46" t="n">
-        <v>15.13333333333335</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C47" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D47" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>45.0263</v>
-      </c>
-      <c r="G47" t="n">
-        <v>15.16666666666669</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>99.1447</v>
-      </c>
-      <c r="G48" t="n">
-        <v>15.16666666666669</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G49" t="n">
-        <v>15.16666666666669</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C50" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D50" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E50" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10</v>
-      </c>
-      <c r="G50" t="n">
-        <v>15.16666666666669</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1810.7583</v>
-      </c>
-      <c r="G51" t="n">
-        <v>15.13333333333335</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>91248.61840000001</v>
-      </c>
-      <c r="G52" t="n">
-        <v>15.13333333333335</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D53" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G53" t="n">
-        <v>15.13333333333335</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2313,19 +2293,23 @@
         <v>15.2</v>
       </c>
       <c r="F54" t="n">
-        <v>342.7924</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>15.16666666666669</v>
+        <v>15.43000000000002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2343,28 +2327,32 @@
         <v>15.2</v>
       </c>
       <c r="C55" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D55" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E55" t="n">
         <v>15.2</v>
       </c>
       <c r="F55" t="n">
-        <v>155500</v>
+        <v>342.7924</v>
       </c>
       <c r="G55" t="n">
-        <v>15.23333333333336</v>
+        <v>15.42500000000002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2379,31 +2367,35 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C56" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D56" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E56" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F56" t="n">
-        <v>30000</v>
+        <v>155500</v>
       </c>
       <c r="G56" t="n">
-        <v>15.30000000000002</v>
+        <v>15.42000000000002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2421,19 +2413,19 @@
         <v>15.4</v>
       </c>
       <c r="C57" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D57" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E57" t="n">
         <v>15.4</v>
       </c>
       <c r="F57" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G57" t="n">
-        <v>15.40000000000002</v>
+        <v>15.41666666666669</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2442,7 +2434,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2457,22 +2451,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C58" t="n">
         <v>15.5</v>
       </c>
-      <c r="C58" t="n">
-        <v>15.7</v>
-      </c>
       <c r="D58" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E58" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F58" t="n">
-        <v>24100</v>
+        <v>50000</v>
       </c>
       <c r="G58" t="n">
-        <v>15.53333333333335</v>
+        <v>15.41500000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2481,7 +2475,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2496,22 +2492,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C59" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D59" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E59" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F59" t="n">
-        <v>30000</v>
+        <v>24100</v>
       </c>
       <c r="G59" t="n">
-        <v>15.60000000000002</v>
+        <v>15.41666666666669</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2520,7 +2516,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2547,10 +2545,10 @@
         <v>15.6</v>
       </c>
       <c r="F60" t="n">
-        <v>189240.8333</v>
+        <v>30000</v>
       </c>
       <c r="G60" t="n">
-        <v>15.63333333333336</v>
+        <v>15.41500000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2559,7 +2557,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2577,19 +2577,19 @@
         <v>15.6</v>
       </c>
       <c r="C61" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D61" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E61" t="n">
         <v>15.6</v>
       </c>
       <c r="F61" t="n">
-        <v>93657</v>
+        <v>189240.8333</v>
       </c>
       <c r="G61" t="n">
-        <v>15.63333333333335</v>
+        <v>15.41666666666669</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,7 +2598,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2613,7 +2615,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C62" t="n">
         <v>15.7</v>
@@ -2622,13 +2624,13 @@
         <v>15.7</v>
       </c>
       <c r="E62" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F62" t="n">
-        <v>182279.8725</v>
+        <v>93657</v>
       </c>
       <c r="G62" t="n">
-        <v>15.66666666666669</v>
+        <v>15.41833333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2637,7 +2639,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2664,10 +2668,10 @@
         <v>15.7</v>
       </c>
       <c r="F63" t="n">
-        <v>145.4034</v>
+        <v>182279.8725</v>
       </c>
       <c r="G63" t="n">
-        <v>15.70000000000002</v>
+        <v>15.41833333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2676,7 +2680,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2691,22 +2697,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C64" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D64" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E64" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F64" t="n">
-        <v>81702.2151</v>
+        <v>145.4034</v>
       </c>
       <c r="G64" t="n">
-        <v>15.73333333333335</v>
+        <v>15.42000000000002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2715,7 +2721,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2733,19 +2741,19 @@
         <v>15.8</v>
       </c>
       <c r="C65" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D65" t="n">
         <v>15.8</v>
       </c>
       <c r="E65" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F65" t="n">
-        <v>953572.5649999999</v>
+        <v>81702.2151</v>
       </c>
       <c r="G65" t="n">
-        <v>15.73333333333335</v>
+        <v>15.42166666666669</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2754,7 +2762,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2769,22 +2779,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C66" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D66" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="E66" t="n">
         <v>15.7</v>
       </c>
       <c r="F66" t="n">
-        <v>85192.8511</v>
+        <v>953572.5649999999</v>
       </c>
       <c r="G66" t="n">
-        <v>15.83333333333335</v>
+        <v>15.42333333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2793,7 +2803,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2808,22 +2820,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C67" t="n">
         <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="E67" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F67" t="n">
-        <v>189735.487</v>
+        <v>85192.8511</v>
       </c>
       <c r="G67" t="n">
-        <v>15.90000000000002</v>
+        <v>15.43000000000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2832,20 +2844,24 @@
         <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>15.2</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1.047631578947368</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C68" t="n">
         <v>16</v>
@@ -2854,13 +2870,13 @@
         <v>16</v>
       </c>
       <c r="E68" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>189735.487</v>
       </c>
       <c r="G68" t="n">
-        <v>16.00000000000002</v>
+        <v>15.43666666666669</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2880,28 +2896,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D69" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="F69" t="n">
-        <v>7289.9367</v>
+        <v>11</v>
       </c>
       <c r="G69" t="n">
-        <v>15.93333333333335</v>
+        <v>15.44333333333335</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2924,13 +2940,13 @@
         <v>15.8</v>
       </c>
       <c r="E70" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F70" t="n">
-        <v>44720.6329</v>
+        <v>7289.9367</v>
       </c>
       <c r="G70" t="n">
-        <v>15.86666666666668</v>
+        <v>15.44666666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2959,13 +2975,13 @@
         <v>15.8</v>
       </c>
       <c r="E71" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F71" t="n">
-        <v>92600</v>
+        <v>44720.6329</v>
       </c>
       <c r="G71" t="n">
-        <v>15.80000000000002</v>
+        <v>15.45000000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2985,22 +3001,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C72" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D72" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E72" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F72" t="n">
-        <v>176027.061</v>
+        <v>92600</v>
       </c>
       <c r="G72" t="n">
-        <v>15.73333333333335</v>
+        <v>15.45166666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3020,22 +3036,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C73" t="n">
         <v>15.6</v>
       </c>
       <c r="D73" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E73" t="n">
         <v>15.6</v>
       </c>
       <c r="F73" t="n">
-        <v>117808.6714</v>
+        <v>176027.061</v>
       </c>
       <c r="G73" t="n">
-        <v>15.66666666666668</v>
+        <v>15.45166666666668</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3067,10 +3083,10 @@
         <v>15.6</v>
       </c>
       <c r="F74" t="n">
-        <v>88578.3861</v>
+        <v>117808.6714</v>
       </c>
       <c r="G74" t="n">
-        <v>15.60000000000001</v>
+        <v>15.45166666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3093,19 +3109,19 @@
         <v>15.6</v>
       </c>
       <c r="C75" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D75" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E75" t="n">
         <v>15.6</v>
       </c>
       <c r="F75" t="n">
-        <v>15246.0545</v>
+        <v>88578.3861</v>
       </c>
       <c r="G75" t="n">
-        <v>15.63333333333335</v>
+        <v>15.45166666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3128,19 +3144,19 @@
         <v>15.6</v>
       </c>
       <c r="C76" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D76" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E76" t="n">
         <v>15.6</v>
       </c>
       <c r="F76" t="n">
-        <v>3171.719</v>
+        <v>15246.0545</v>
       </c>
       <c r="G76" t="n">
-        <v>15.63333333333335</v>
+        <v>15.45333333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3172,10 +3188,10 @@
         <v>15.6</v>
       </c>
       <c r="F77" t="n">
-        <v>16311.7529</v>
+        <v>3171.719</v>
       </c>
       <c r="G77" t="n">
-        <v>15.63333333333335</v>
+        <v>15.45500000000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3195,22 +3211,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C78" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D78" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E78" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F78" t="n">
-        <v>40100</v>
+        <v>16311.7529</v>
       </c>
       <c r="G78" t="n">
-        <v>15.63333333333335</v>
+        <v>15.45666666666668</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3242,10 +3258,10 @@
         <v>15.7</v>
       </c>
       <c r="F79" t="n">
-        <v>50200</v>
+        <v>40100</v>
       </c>
       <c r="G79" t="n">
-        <v>15.66666666666668</v>
+        <v>15.45833333333335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3268,19 +3284,19 @@
         <v>15.7</v>
       </c>
       <c r="C80" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D80" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E80" t="n">
         <v>15.7</v>
       </c>
       <c r="F80" t="n">
-        <v>56432</v>
+        <v>50200</v>
       </c>
       <c r="G80" t="n">
-        <v>15.73333333333335</v>
+        <v>15.46000000000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3300,22 +3316,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C81" t="n">
         <v>15.8</v>
       </c>
       <c r="D81" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E81" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F81" t="n">
-        <v>17594.5509</v>
+        <v>56432</v>
       </c>
       <c r="G81" t="n">
-        <v>15.76666666666668</v>
+        <v>15.46500000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3338,7 +3354,7 @@
         <v>15.8</v>
       </c>
       <c r="C82" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D82" t="n">
         <v>15.9</v>
@@ -3347,10 +3363,10 @@
         <v>15.8</v>
       </c>
       <c r="F82" t="n">
-        <v>100235.7215</v>
+        <v>17594.5509</v>
       </c>
       <c r="G82" t="n">
-        <v>15.83333333333335</v>
+        <v>15.47000000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3370,22 +3386,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C83" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D83" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E83" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F83" t="n">
-        <v>8000</v>
+        <v>100235.7215</v>
       </c>
       <c r="G83" t="n">
-        <v>15.90000000000001</v>
+        <v>15.47666666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3408,19 +3424,19 @@
         <v>15.9</v>
       </c>
       <c r="C84" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D84" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F84" t="n">
-        <v>111451.8215</v>
+        <v>8000</v>
       </c>
       <c r="G84" t="n">
-        <v>15.93333333333335</v>
+        <v>15.48333333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3440,22 +3456,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C85" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D85" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E85" t="n">
         <v>15.8</v>
       </c>
       <c r="F85" t="n">
-        <v>24000</v>
+        <v>111451.8215</v>
       </c>
       <c r="G85" t="n">
-        <v>15.90000000000001</v>
+        <v>15.48833333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3487,10 +3503,10 @@
         <v>15.8</v>
       </c>
       <c r="F86" t="n">
-        <v>182766.2658</v>
+        <v>24000</v>
       </c>
       <c r="G86" t="n">
-        <v>15.83333333333335</v>
+        <v>15.49166666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3516,16 +3532,16 @@
         <v>15.8</v>
       </c>
       <c r="D87" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E87" t="n">
         <v>15.8</v>
       </c>
       <c r="F87" t="n">
-        <v>37574.2294</v>
+        <v>182766.2658</v>
       </c>
       <c r="G87" t="n">
-        <v>15.80000000000001</v>
+        <v>15.49666666666668</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3551,16 +3567,16 @@
         <v>15.8</v>
       </c>
       <c r="D88" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E88" t="n">
         <v>15.8</v>
       </c>
       <c r="F88" t="n">
-        <v>19700</v>
+        <v>37574.2294</v>
       </c>
       <c r="G88" t="n">
-        <v>15.80000000000002</v>
+        <v>15.50166666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3583,19 +3599,19 @@
         <v>15.8</v>
       </c>
       <c r="C89" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D89" t="n">
         <v>15.8</v>
       </c>
       <c r="E89" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F89" t="n">
-        <v>16633</v>
+        <v>19700</v>
       </c>
       <c r="G89" t="n">
-        <v>15.76666666666669</v>
+        <v>15.50833333333335</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3618,19 +3634,19 @@
         <v>15.8</v>
       </c>
       <c r="C90" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D90" t="n">
         <v>15.8</v>
       </c>
       <c r="E90" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F90" t="n">
-        <v>20400</v>
+        <v>16633</v>
       </c>
       <c r="G90" t="n">
-        <v>15.76666666666669</v>
+        <v>15.51333333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3653,19 +3669,19 @@
         <v>15.8</v>
       </c>
       <c r="C91" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D91" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E91" t="n">
         <v>15.8</v>
       </c>
       <c r="F91" t="n">
-        <v>35700</v>
+        <v>20400</v>
       </c>
       <c r="G91" t="n">
-        <v>15.80000000000002</v>
+        <v>15.52166666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3685,22 +3701,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C92" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D92" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E92" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F92" t="n">
-        <v>250000</v>
+        <v>35700</v>
       </c>
       <c r="G92" t="n">
-        <v>15.90000000000001</v>
+        <v>15.53166666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3723,19 +3739,19 @@
         <v>15.9</v>
       </c>
       <c r="C93" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D93" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E93" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>250000</v>
       </c>
       <c r="G93" t="n">
-        <v>15.86666666666668</v>
+        <v>15.54166666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3755,22 +3771,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C94" t="n">
         <v>15.7</v>
       </c>
       <c r="D94" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E94" t="n">
         <v>15.7</v>
       </c>
       <c r="F94" t="n">
-        <v>64814.3627</v>
+        <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>15.80000000000002</v>
+        <v>15.54666666666668</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3802,10 +3818,10 @@
         <v>15.7</v>
       </c>
       <c r="F95" t="n">
-        <v>22810.0002</v>
+        <v>64814.3627</v>
       </c>
       <c r="G95" t="n">
-        <v>15.70000000000002</v>
+        <v>15.55333333333335</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3825,22 +3841,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C96" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D96" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E96" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F96" t="n">
-        <v>49990</v>
+        <v>22810.0002</v>
       </c>
       <c r="G96" t="n">
-        <v>15.66666666666669</v>
+        <v>15.56000000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3872,10 +3888,10 @@
         <v>15.6</v>
       </c>
       <c r="F97" t="n">
-        <v>1106.4044</v>
+        <v>49990</v>
       </c>
       <c r="G97" t="n">
-        <v>15.63333333333335</v>
+        <v>15.56500000000002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3907,10 +3923,10 @@
         <v>15.6</v>
       </c>
       <c r="F98" t="n">
-        <v>42004.3625</v>
+        <v>1106.4044</v>
       </c>
       <c r="G98" t="n">
-        <v>15.60000000000002</v>
+        <v>15.57166666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3946,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C99" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D99" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E99" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F99" t="n">
-        <v>6142.2292</v>
+        <v>42004.3625</v>
       </c>
       <c r="G99" t="n">
-        <v>15.63333333333336</v>
+        <v>15.57833333333335</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3965,22 +3981,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C100" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D100" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E100" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F100" t="n">
-        <v>215099.8872</v>
+        <v>6142.2292</v>
       </c>
       <c r="G100" t="n">
-        <v>15.60000000000002</v>
+        <v>15.58666666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4000,22 +4016,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C101" t="n">
         <v>15.5</v>
       </c>
       <c r="D101" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E101" t="n">
         <v>15.5</v>
       </c>
       <c r="F101" t="n">
-        <v>4598.7513</v>
+        <v>215099.8872</v>
       </c>
       <c r="G101" t="n">
-        <v>15.56666666666669</v>
+        <v>15.59333333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,19 +4054,19 @@
         <v>15.5</v>
       </c>
       <c r="C102" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D102" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E102" t="n">
         <v>15.5</v>
       </c>
       <c r="F102" t="n">
-        <v>67096.97500000001</v>
+        <v>4598.7513</v>
       </c>
       <c r="G102" t="n">
-        <v>15.53333333333335</v>
+        <v>15.59833333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4070,22 +4086,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C103" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D103" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E103" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F103" t="n">
-        <v>7474.7957</v>
+        <v>67096.97500000001</v>
       </c>
       <c r="G103" t="n">
-        <v>15.50000000000002</v>
+        <v>15.60500000000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4105,22 +4121,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C104" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D104" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E104" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>7474.7957</v>
       </c>
       <c r="G104" t="n">
-        <v>15.53333333333335</v>
+        <v>15.60833333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4152,10 +4168,10 @@
         <v>15.6</v>
       </c>
       <c r="F105" t="n">
-        <v>101040.1923</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="n">
-        <v>15.53333333333335</v>
+        <v>15.61666666666668</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4175,22 +4191,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C106" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D106" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E106" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F106" t="n">
-        <v>20000</v>
+        <v>101040.1923</v>
       </c>
       <c r="G106" t="n">
-        <v>15.63333333333336</v>
+        <v>15.62333333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4222,10 +4238,10 @@
         <v>15.7</v>
       </c>
       <c r="F107" t="n">
-        <v>92401</v>
+        <v>20000</v>
       </c>
       <c r="G107" t="n">
-        <v>15.66666666666669</v>
+        <v>15.63333333333335</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4257,10 +4273,10 @@
         <v>15.7</v>
       </c>
       <c r="F108" t="n">
-        <v>66000</v>
+        <v>92401</v>
       </c>
       <c r="G108" t="n">
-        <v>15.70000000000002</v>
+        <v>15.64166666666668</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4295,7 +4311,7 @@
         <v>66000</v>
       </c>
       <c r="G109" t="n">
-        <v>15.70000000000002</v>
+        <v>15.65000000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4318,19 +4334,19 @@
         <v>15.7</v>
       </c>
       <c r="C110" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D110" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E110" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F110" t="n">
-        <v>8020</v>
+        <v>66000</v>
       </c>
       <c r="G110" t="n">
-        <v>15.73333333333335</v>
+        <v>15.66000000000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4350,22 +4366,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C111" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D111" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E111" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F111" t="n">
-        <v>12556.8334</v>
+        <v>8020</v>
       </c>
       <c r="G111" t="n">
-        <v>15.73333333333335</v>
+        <v>15.67000000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4385,22 +4401,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C112" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D112" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E112" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F112" t="n">
-        <v>30000</v>
+        <v>12556.8334</v>
       </c>
       <c r="G112" t="n">
-        <v>15.76666666666668</v>
+        <v>15.68000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4420,7 +4436,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C113" t="n">
         <v>15.8</v>
@@ -4429,13 +4445,13 @@
         <v>15.8</v>
       </c>
       <c r="E113" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F113" t="n">
-        <v>44947</v>
+        <v>30000</v>
       </c>
       <c r="G113" t="n">
-        <v>15.76666666666668</v>
+        <v>15.69166666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4467,10 +4483,10 @@
         <v>15.8</v>
       </c>
       <c r="F114" t="n">
-        <v>2634.2937</v>
+        <v>44947</v>
       </c>
       <c r="G114" t="n">
-        <v>15.80000000000001</v>
+        <v>15.70166666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4490,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C115" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D115" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E115" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F115" t="n">
-        <v>23600</v>
+        <v>2634.2937</v>
       </c>
       <c r="G115" t="n">
-        <v>15.83333333333334</v>
+        <v>15.71166666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4525,22 +4541,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C116" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D116" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E116" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F116" t="n">
-        <v>416.0606</v>
+        <v>23600</v>
       </c>
       <c r="G116" t="n">
-        <v>15.83333333333334</v>
+        <v>15.72166666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4563,19 +4579,19 @@
         <v>15.8</v>
       </c>
       <c r="C117" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D117" t="n">
         <v>15.8</v>
       </c>
       <c r="E117" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F117" t="n">
-        <v>100782.0714</v>
+        <v>416.0606</v>
       </c>
       <c r="G117" t="n">
-        <v>15.80000000000001</v>
+        <v>15.72833333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4598,19 +4614,19 @@
         <v>15.8</v>
       </c>
       <c r="C118" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D118" t="n">
         <v>15.8</v>
       </c>
       <c r="E118" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F118" t="n">
-        <v>9834</v>
+        <v>100782.0714</v>
       </c>
       <c r="G118" t="n">
-        <v>15.76666666666668</v>
+        <v>15.73166666666668</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4642,10 +4658,10 @@
         <v>15.8</v>
       </c>
       <c r="F119" t="n">
-        <v>10016</v>
+        <v>9834</v>
       </c>
       <c r="G119" t="n">
-        <v>15.76666666666668</v>
+        <v>15.73333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4665,22 +4681,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C120" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D120" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E120" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F120" t="n">
-        <v>2340</v>
+        <v>10016</v>
       </c>
       <c r="G120" t="n">
-        <v>15.76666666666668</v>
+        <v>15.73666666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4700,22 +4716,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F121" t="n">
-        <v>3232.7579</v>
+        <v>2340</v>
       </c>
       <c r="G121" t="n">
-        <v>15.70000000000001</v>
+        <v>15.73833333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4747,10 +4763,10 @@
         <v>15.6</v>
       </c>
       <c r="F122" t="n">
-        <v>3232.758</v>
+        <v>3232.7579</v>
       </c>
       <c r="G122" t="n">
-        <v>15.63333333333335</v>
+        <v>15.73666666666668</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4770,22 +4786,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C123" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D123" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E123" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F123" t="n">
-        <v>1970</v>
+        <v>3232.758</v>
       </c>
       <c r="G123" t="n">
-        <v>15.63333333333335</v>
+        <v>15.73500000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4808,19 +4824,19 @@
         <v>15.7</v>
       </c>
       <c r="C124" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D124" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E124" t="n">
         <v>15.7</v>
       </c>
       <c r="F124" t="n">
-        <v>8000</v>
+        <v>1970</v>
       </c>
       <c r="G124" t="n">
-        <v>15.70000000000001</v>
+        <v>15.73500000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4840,7 +4856,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C125" t="n">
         <v>15.8</v>
@@ -4849,13 +4865,13 @@
         <v>15.8</v>
       </c>
       <c r="E125" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F125" t="n">
-        <v>25701</v>
+        <v>8000</v>
       </c>
       <c r="G125" t="n">
-        <v>15.76666666666668</v>
+        <v>15.73500000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4887,10 +4903,10 @@
         <v>15.8</v>
       </c>
       <c r="F126" t="n">
-        <v>7000</v>
+        <v>25701</v>
       </c>
       <c r="G126" t="n">
-        <v>15.80000000000001</v>
+        <v>15.73666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4922,10 +4938,10 @@
         <v>15.8</v>
       </c>
       <c r="F127" t="n">
-        <v>5436</v>
+        <v>7000</v>
       </c>
       <c r="G127" t="n">
-        <v>15.80000000000001</v>
+        <v>15.73333333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4957,10 +4973,10 @@
         <v>15.8</v>
       </c>
       <c r="F128" t="n">
-        <v>24000</v>
+        <v>5436</v>
       </c>
       <c r="G128" t="n">
-        <v>15.80000000000001</v>
+        <v>15.73000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4992,10 +5008,10 @@
         <v>15.8</v>
       </c>
       <c r="F129" t="n">
-        <v>15619</v>
+        <v>24000</v>
       </c>
       <c r="G129" t="n">
-        <v>15.80000000000001</v>
+        <v>15.72666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5027,10 +5043,10 @@
         <v>15.8</v>
       </c>
       <c r="F130" t="n">
-        <v>6680.0632</v>
+        <v>15619</v>
       </c>
       <c r="G130" t="n">
-        <v>15.80000000000001</v>
+        <v>15.72666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5050,22 +5066,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C131" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D131" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E131" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F131" t="n">
-        <v>114451.027</v>
+        <v>6680.0632</v>
       </c>
       <c r="G131" t="n">
-        <v>15.73333333333334</v>
+        <v>15.72666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5097,10 +5113,10 @@
         <v>15.6</v>
       </c>
       <c r="F132" t="n">
-        <v>12.0987</v>
+        <v>114451.027</v>
       </c>
       <c r="G132" t="n">
-        <v>15.66666666666668</v>
+        <v>15.72333333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5120,22 +5136,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C133" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D133" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E133" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F133" t="n">
-        <v>5489.3031</v>
+        <v>12.0987</v>
       </c>
       <c r="G133" t="n">
-        <v>15.56666666666668</v>
+        <v>15.72333333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5158,19 +5174,19 @@
         <v>15.5</v>
       </c>
       <c r="C134" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D134" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E134" t="n">
         <v>15.5</v>
       </c>
       <c r="F134" t="n">
-        <v>56581.5783</v>
+        <v>5489.3031</v>
       </c>
       <c r="G134" t="n">
-        <v>15.56666666666668</v>
+        <v>15.72166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5193,19 +5209,19 @@
         <v>15.5</v>
       </c>
       <c r="C135" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D135" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E135" t="n">
         <v>15.5</v>
       </c>
       <c r="F135" t="n">
-        <v>4204.5726</v>
+        <v>56581.5783</v>
       </c>
       <c r="G135" t="n">
-        <v>15.53333333333334</v>
+        <v>15.72166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5228,19 +5244,19 @@
         <v>15.5</v>
       </c>
       <c r="C136" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D136" t="n">
         <v>15.5</v>
       </c>
       <c r="E136" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F136" t="n">
-        <v>20000</v>
+        <v>4204.5726</v>
       </c>
       <c r="G136" t="n">
-        <v>15.50000000000001</v>
+        <v>15.71833333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5260,22 +5276,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C137" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D137" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E137" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="G137" t="n">
-        <v>15.50000000000001</v>
+        <v>15.715</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5295,7 +5311,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C138" t="n">
         <v>15.6</v>
@@ -5304,13 +5320,13 @@
         <v>15.6</v>
       </c>
       <c r="E138" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F138" t="n">
-        <v>9100</v>
+        <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>15.53333333333334</v>
+        <v>15.715</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5330,7 +5346,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C139" t="n">
         <v>15.6</v>
@@ -5339,13 +5355,13 @@
         <v>15.6</v>
       </c>
       <c r="E139" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F139" t="n">
-        <v>38461.5384</v>
+        <v>9100</v>
       </c>
       <c r="G139" t="n">
-        <v>15.60000000000001</v>
+        <v>15.71333333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5365,22 +5381,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C140" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D140" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E140" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F140" t="n">
-        <v>6600</v>
+        <v>38461.5384</v>
       </c>
       <c r="G140" t="n">
-        <v>15.56666666666668</v>
+        <v>15.71166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5412,10 +5428,10 @@
         <v>15.5</v>
       </c>
       <c r="F141" t="n">
-        <v>6465.5158</v>
+        <v>6600</v>
       </c>
       <c r="G141" t="n">
-        <v>15.53333333333334</v>
+        <v>15.70666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5435,22 +5451,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C142" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D142" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E142" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F142" t="n">
-        <v>12600</v>
+        <v>6465.5158</v>
       </c>
       <c r="G142" t="n">
-        <v>15.53333333333334</v>
+        <v>15.70166666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5482,10 +5498,10 @@
         <v>15.6</v>
       </c>
       <c r="F143" t="n">
-        <v>1763.2692</v>
+        <v>12600</v>
       </c>
       <c r="G143" t="n">
-        <v>15.56666666666668</v>
+        <v>15.69666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5508,19 +5524,19 @@
         <v>15.6</v>
       </c>
       <c r="C144" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D144" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E144" t="n">
         <v>15.6</v>
       </c>
       <c r="F144" t="n">
-        <v>20000</v>
+        <v>1763.2692</v>
       </c>
       <c r="G144" t="n">
-        <v>15.63333333333335</v>
+        <v>15.69</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5543,19 +5559,19 @@
         <v>15.6</v>
       </c>
       <c r="C145" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D145" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E145" t="n">
         <v>15.6</v>
       </c>
       <c r="F145" t="n">
-        <v>4313.6422</v>
+        <v>20000</v>
       </c>
       <c r="G145" t="n">
-        <v>15.63333333333335</v>
+        <v>15.68666666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5587,10 +5603,10 @@
         <v>15.6</v>
       </c>
       <c r="F146" t="n">
-        <v>990</v>
+        <v>4313.6422</v>
       </c>
       <c r="G146" t="n">
-        <v>15.63333333333335</v>
+        <v>15.68333333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5622,10 +5638,10 @@
         <v>15.6</v>
       </c>
       <c r="F147" t="n">
-        <v>163012.564</v>
+        <v>990</v>
       </c>
       <c r="G147" t="n">
-        <v>15.60000000000001</v>
+        <v>15.68000000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5657,10 +5673,10 @@
         <v>15.6</v>
       </c>
       <c r="F148" t="n">
-        <v>161700</v>
+        <v>163012.564</v>
       </c>
       <c r="G148" t="n">
-        <v>15.60000000000001</v>
+        <v>15.67666666666668</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5680,22 +5696,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C149" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D149" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E149" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F149" t="n">
-        <v>44400</v>
+        <v>161700</v>
       </c>
       <c r="G149" t="n">
-        <v>15.63333333333335</v>
+        <v>15.67333333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5718,19 +5734,19 @@
         <v>15.7</v>
       </c>
       <c r="C150" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D150" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E150" t="n">
         <v>15.7</v>
       </c>
       <c r="F150" t="n">
-        <v>170200</v>
+        <v>44400</v>
       </c>
       <c r="G150" t="n">
-        <v>15.73333333333335</v>
+        <v>15.67333333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5750,7 +5766,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C151" t="n">
         <v>15.9</v>
@@ -5759,13 +5775,13 @@
         <v>15.9</v>
       </c>
       <c r="E151" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F151" t="n">
-        <v>9100</v>
+        <v>170200</v>
       </c>
       <c r="G151" t="n">
-        <v>15.83333333333334</v>
+        <v>15.67500000000001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5785,22 +5801,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C152" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D152" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E152" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F152" t="n">
-        <v>150985.2674</v>
+        <v>9100</v>
       </c>
       <c r="G152" t="n">
-        <v>15.83333333333334</v>
+        <v>15.67500000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5832,10 +5848,10 @@
         <v>15.7</v>
       </c>
       <c r="F153" t="n">
-        <v>9484</v>
+        <v>150985.2674</v>
       </c>
       <c r="G153" t="n">
-        <v>15.76666666666668</v>
+        <v>15.67000000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5855,22 +5871,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C154" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D154" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E154" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F154" t="n">
-        <v>19600</v>
+        <v>9484</v>
       </c>
       <c r="G154" t="n">
-        <v>15.73333333333335</v>
+        <v>15.67000000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5890,22 +5906,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C155" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D155" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E155" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F155" t="n">
-        <v>36900</v>
+        <v>19600</v>
       </c>
       <c r="G155" t="n">
-        <v>15.73333333333334</v>
+        <v>15.67166666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5928,19 +5944,19 @@
         <v>15.7</v>
       </c>
       <c r="C156" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D156" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E156" t="n">
         <v>15.7</v>
       </c>
       <c r="F156" t="n">
-        <v>49900</v>
+        <v>36900</v>
       </c>
       <c r="G156" t="n">
-        <v>15.76666666666667</v>
+        <v>15.67166666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5960,7 +5976,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C157" t="n">
         <v>15.8</v>
@@ -5969,13 +5985,13 @@
         <v>15.8</v>
       </c>
       <c r="E157" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F157" t="n">
-        <v>1000</v>
+        <v>49900</v>
       </c>
       <c r="G157" t="n">
-        <v>15.76666666666667</v>
+        <v>15.67500000000001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5995,22 +6011,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C158" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D158" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E158" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F158" t="n">
-        <v>35752.4973</v>
+        <v>1000</v>
       </c>
       <c r="G158" t="n">
-        <v>15.76666666666667</v>
+        <v>15.67833333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6030,22 +6046,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C159" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D159" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E159" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F159" t="n">
-        <v>34988.0379</v>
+        <v>35752.4973</v>
       </c>
       <c r="G159" t="n">
-        <v>15.76666666666667</v>
+        <v>15.68000000000001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6068,19 +6084,19 @@
         <v>15.8</v>
       </c>
       <c r="C160" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D160" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E160" t="n">
         <v>15.8</v>
       </c>
       <c r="F160" t="n">
-        <v>72400</v>
+        <v>34988.0379</v>
       </c>
       <c r="G160" t="n">
-        <v>15.80000000000001</v>
+        <v>15.68166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6100,7 +6116,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C161" t="n">
         <v>15.9</v>
@@ -6109,13 +6125,13 @@
         <v>15.9</v>
       </c>
       <c r="E161" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F161" t="n">
-        <v>56182.9595</v>
+        <v>72400</v>
       </c>
       <c r="G161" t="n">
-        <v>15.86666666666667</v>
+        <v>15.68833333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6135,22 +6151,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C162" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D162" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E162" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F162" t="n">
-        <v>188865</v>
+        <v>56182.9595</v>
       </c>
       <c r="G162" t="n">
-        <v>15.93333333333334</v>
+        <v>15.69500000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6170,22 +6186,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C163" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D163" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E163" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F163" t="n">
-        <v>41507.679</v>
+        <v>188865</v>
       </c>
       <c r="G163" t="n">
-        <v>15.93333333333334</v>
+        <v>15.70166666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6205,22 +6221,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C164" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D164" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E164" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F164" t="n">
-        <v>29.3167</v>
+        <v>41507.679</v>
       </c>
       <c r="G164" t="n">
-        <v>16.00000000000001</v>
+        <v>15.71000000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6252,10 +6268,10 @@
         <v>16.1</v>
       </c>
       <c r="F165" t="n">
-        <v>11642.8571</v>
+        <v>29.3167</v>
       </c>
       <c r="G165" t="n">
-        <v>16.03333333333334</v>
+        <v>15.71833333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6275,22 +6291,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C166" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D166" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E166" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F166" t="n">
-        <v>11613.75</v>
+        <v>11642.8571</v>
       </c>
       <c r="G166" t="n">
-        <v>16.06666666666667</v>
+        <v>15.72666666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6322,10 +6338,10 @@
         <v>16</v>
       </c>
       <c r="F167" t="n">
-        <v>9879.1034</v>
+        <v>11613.75</v>
       </c>
       <c r="G167" t="n">
-        <v>16.03333333333334</v>
+        <v>15.73166666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6357,10 +6373,10 @@
         <v>16</v>
       </c>
       <c r="F168" t="n">
-        <v>6695.8634</v>
+        <v>9879.1034</v>
       </c>
       <c r="G168" t="n">
-        <v>16.00000000000001</v>
+        <v>15.73666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6380,22 +6396,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C169" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D169" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E169" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F169" t="n">
-        <v>4264.5341</v>
+        <v>6695.8634</v>
       </c>
       <c r="G169" t="n">
-        <v>16.03333333333334</v>
+        <v>15.74166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6415,22 +6431,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C170" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D170" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E170" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F170" t="n">
-        <v>4500.915</v>
+        <v>4264.5341</v>
       </c>
       <c r="G170" t="n">
-        <v>16.03333333333334</v>
+        <v>15.74833333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6462,10 +6478,10 @@
         <v>16</v>
       </c>
       <c r="F171" t="n">
-        <v>1000</v>
+        <v>4500.915</v>
       </c>
       <c r="G171" t="n">
-        <v>16.03333333333334</v>
+        <v>15.75166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6488,19 +6504,19 @@
         <v>16</v>
       </c>
       <c r="C172" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D172" t="n">
         <v>16</v>
       </c>
       <c r="E172" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F172" t="n">
-        <v>18500</v>
+        <v>1000</v>
       </c>
       <c r="G172" t="n">
-        <v>15.96666666666668</v>
+        <v>15.75666666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6520,22 +6536,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C173" t="n">
         <v>15.9</v>
       </c>
       <c r="D173" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E173" t="n">
         <v>15.9</v>
       </c>
       <c r="F173" t="n">
-        <v>83560.6303</v>
+        <v>18500</v>
       </c>
       <c r="G173" t="n">
-        <v>15.93333333333334</v>
+        <v>15.75833333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6555,22 +6571,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C174" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D174" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E174" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F174" t="n">
-        <v>10</v>
+        <v>83560.6303</v>
       </c>
       <c r="G174" t="n">
-        <v>15.96666666666668</v>
+        <v>15.76</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6590,22 +6606,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C175" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D175" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E175" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F175" t="n">
-        <v>88717.9359</v>
+        <v>10</v>
       </c>
       <c r="G175" t="n">
-        <v>16.00000000000001</v>
+        <v>15.76500000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6625,22 +6641,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C176" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D176" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E176" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F176" t="n">
-        <v>14000</v>
+        <v>88717.9359</v>
       </c>
       <c r="G176" t="n">
-        <v>16.00000000000001</v>
+        <v>15.76666666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6672,10 +6688,10 @@
         <v>15.9</v>
       </c>
       <c r="F177" t="n">
-        <v>2220</v>
+        <v>14000</v>
       </c>
       <c r="G177" t="n">
-        <v>15.93333333333334</v>
+        <v>15.76833333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6698,19 +6714,19 @@
         <v>15.9</v>
       </c>
       <c r="C178" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D178" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E178" t="n">
         <v>15.9</v>
       </c>
       <c r="F178" t="n">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="G178" t="n">
-        <v>15.93333333333334</v>
+        <v>15.77166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6730,22 +6746,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C179" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D179" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E179" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F179" t="n">
-        <v>32669.1467</v>
+        <v>2222</v>
       </c>
       <c r="G179" t="n">
-        <v>15.90000000000001</v>
+        <v>15.77500000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6765,22 +6781,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C180" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D180" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E180" t="n">
         <v>15.7</v>
       </c>
       <c r="F180" t="n">
-        <v>245628.7892</v>
+        <v>32669.1467</v>
       </c>
       <c r="G180" t="n">
-        <v>15.90000000000001</v>
+        <v>15.77500000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6803,19 +6819,19 @@
         <v>15.8</v>
       </c>
       <c r="C181" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D181" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E181" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F181" t="n">
-        <v>1983.1758</v>
+        <v>245628.7892</v>
       </c>
       <c r="G181" t="n">
-        <v>15.83333333333334</v>
+        <v>15.77833333333334</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6835,22 +6851,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C182" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D182" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E182" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F182" t="n">
-        <v>32544.0251</v>
+        <v>1983.1758</v>
       </c>
       <c r="G182" t="n">
-        <v>15.86666666666667</v>
+        <v>15.78166666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6873,19 +6889,19 @@
         <v>15.9</v>
       </c>
       <c r="C183" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D183" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E183" t="n">
         <v>15.9</v>
       </c>
       <c r="F183" t="n">
-        <v>5679.925</v>
+        <v>32544.0251</v>
       </c>
       <c r="G183" t="n">
-        <v>15.90000000000001</v>
+        <v>15.78666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6917,10 +6933,10 @@
         <v>15.9</v>
       </c>
       <c r="F184" t="n">
-        <v>5171.618</v>
+        <v>5679.925</v>
       </c>
       <c r="G184" t="n">
-        <v>15.96666666666667</v>
+        <v>15.79166666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6940,7 +6956,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C185" t="n">
         <v>16</v>
@@ -6949,13 +6965,13 @@
         <v>16</v>
       </c>
       <c r="E185" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F185" t="n">
-        <v>13500</v>
+        <v>5171.618</v>
       </c>
       <c r="G185" t="n">
-        <v>16.00000000000001</v>
+        <v>15.795</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6975,22 +6991,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C186" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D186" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E186" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="F186" t="n">
-        <v>50</v>
+        <v>13500</v>
       </c>
       <c r="G186" t="n">
-        <v>15.93333333333334</v>
+        <v>15.79833333333334</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7010,22 +7026,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C187" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D187" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="E187" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F187" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G187" t="n">
-        <v>15.93333333333334</v>
+        <v>15.79833333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7057,10 +7073,10 @@
         <v>16</v>
       </c>
       <c r="F188" t="n">
-        <v>14726.4279</v>
+        <v>12</v>
       </c>
       <c r="G188" t="n">
-        <v>15.93333333333334</v>
+        <v>15.80166666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7080,7 +7096,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C189" t="n">
         <v>16</v>
@@ -7089,13 +7105,13 @@
         <v>16</v>
       </c>
       <c r="E189" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F189" t="n">
-        <v>97709.125</v>
+        <v>14726.4279</v>
       </c>
       <c r="G189" t="n">
-        <v>16.00000000000001</v>
+        <v>15.80500000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7118,19 +7134,19 @@
         <v>15.9</v>
       </c>
       <c r="C190" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D190" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E190" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F190" t="n">
-        <v>76310.5365</v>
+        <v>97709.125</v>
       </c>
       <c r="G190" t="n">
-        <v>15.93333333333334</v>
+        <v>15.80833333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7150,22 +7166,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C191" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D191" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E191" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F191" t="n">
-        <v>82878</v>
+        <v>76310.5365</v>
       </c>
       <c r="G191" t="n">
-        <v>15.93333333333334</v>
+        <v>15.80833333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7185,22 +7201,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C192" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D192" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E192" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F192" t="n">
-        <v>5008.8665</v>
+        <v>82878</v>
       </c>
       <c r="G192" t="n">
-        <v>15.90000000000001</v>
+        <v>15.815</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7232,10 +7248,10 @@
         <v>15.9</v>
       </c>
       <c r="F193" t="n">
-        <v>5022.4232</v>
+        <v>5008.8665</v>
       </c>
       <c r="G193" t="n">
-        <v>15.93333333333334</v>
+        <v>15.82</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7267,10 +7283,10 @@
         <v>15.9</v>
       </c>
       <c r="F194" t="n">
-        <v>4297.3021</v>
+        <v>5022.4232</v>
       </c>
       <c r="G194" t="n">
-        <v>15.90000000000001</v>
+        <v>15.82666666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7302,10 +7318,10 @@
         <v>15.9</v>
       </c>
       <c r="F195" t="n">
-        <v>5082.4369</v>
+        <v>4297.3021</v>
       </c>
       <c r="G195" t="n">
-        <v>15.90000000000001</v>
+        <v>15.83166666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7325,22 +7341,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C196" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D196" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E196" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F196" t="n">
-        <v>25853.1329</v>
+        <v>5082.4369</v>
       </c>
       <c r="G196" t="n">
-        <v>15.93333333333334</v>
+        <v>15.83833333333334</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7372,10 +7388,10 @@
         <v>16</v>
       </c>
       <c r="F197" t="n">
-        <v>5266.458</v>
+        <v>25853.1329</v>
       </c>
       <c r="G197" t="n">
-        <v>15.96666666666668</v>
+        <v>15.84833333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7407,10 +7423,10 @@
         <v>16</v>
       </c>
       <c r="F198" t="n">
-        <v>20000</v>
+        <v>5266.458</v>
       </c>
       <c r="G198" t="n">
-        <v>16.00000000000001</v>
+        <v>15.855</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7430,22 +7446,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C199" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D199" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E199" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F199" t="n">
-        <v>18100</v>
+        <v>20000</v>
       </c>
       <c r="G199" t="n">
-        <v>15.96666666666668</v>
+        <v>15.86166666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7477,10 +7493,10 @@
         <v>15.9</v>
       </c>
       <c r="F200" t="n">
-        <v>10800</v>
+        <v>18100</v>
       </c>
       <c r="G200" t="n">
-        <v>15.93333333333334</v>
+        <v>15.86666666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7512,10 +7528,10 @@
         <v>15.9</v>
       </c>
       <c r="F201" t="n">
-        <v>63378.243</v>
+        <v>10800</v>
       </c>
       <c r="G201" t="n">
-        <v>15.90000000000001</v>
+        <v>15.87333333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7538,19 +7554,19 @@
         <v>15.9</v>
       </c>
       <c r="C202" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D202" t="n">
         <v>15.9</v>
       </c>
       <c r="E202" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F202" t="n">
-        <v>22560.4639</v>
+        <v>63378.243</v>
       </c>
       <c r="G202" t="n">
-        <v>15.86666666666668</v>
+        <v>15.88</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7570,22 +7586,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C203" t="n">
         <v>15.8</v>
       </c>
       <c r="D203" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E203" t="n">
         <v>15.8</v>
       </c>
       <c r="F203" t="n">
-        <v>48732.426</v>
+        <v>22560.4639</v>
       </c>
       <c r="G203" t="n">
-        <v>15.83333333333334</v>
+        <v>15.88333333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7617,10 +7633,10 @@
         <v>15.8</v>
       </c>
       <c r="F204" t="n">
-        <v>28997.093</v>
+        <v>48732.426</v>
       </c>
       <c r="G204" t="n">
-        <v>15.80000000000001</v>
+        <v>15.88666666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7640,22 +7656,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C205" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D205" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E205" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F205" t="n">
-        <v>3172.1102</v>
+        <v>28997.093</v>
       </c>
       <c r="G205" t="n">
-        <v>15.83333333333335</v>
+        <v>15.88833333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7687,10 +7703,10 @@
         <v>15.9</v>
       </c>
       <c r="F206" t="n">
-        <v>94755.9748</v>
+        <v>3172.1102</v>
       </c>
       <c r="G206" t="n">
-        <v>15.86666666666668</v>
+        <v>15.89333333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7710,22 +7726,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C207" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D207" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E207" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F207" t="n">
-        <v>21587.4198</v>
+        <v>94755.9748</v>
       </c>
       <c r="G207" t="n">
-        <v>15.86666666666668</v>
+        <v>15.89833333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7745,22 +7761,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C208" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D208" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E208" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F208" t="n">
-        <v>62288.8125</v>
+        <v>21587.4198</v>
       </c>
       <c r="G208" t="n">
-        <v>15.86666666666668</v>
+        <v>15.90166666666666</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7792,10 +7808,10 @@
         <v>15.9</v>
       </c>
       <c r="F209" t="n">
-        <v>8160</v>
+        <v>62288.8125</v>
       </c>
       <c r="G209" t="n">
-        <v>15.86666666666668</v>
+        <v>15.90666666666666</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7815,22 +7831,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C210" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D210" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E210" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F210" t="n">
-        <v>40088</v>
+        <v>8160</v>
       </c>
       <c r="G210" t="n">
-        <v>15.86666666666668</v>
+        <v>15.90999999999999</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7862,10 +7878,10 @@
         <v>15.8</v>
       </c>
       <c r="F211" t="n">
-        <v>35101.3478</v>
+        <v>40088</v>
       </c>
       <c r="G211" t="n">
-        <v>15.83333333333334</v>
+        <v>15.90833333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7897,10 +7913,10 @@
         <v>15.8</v>
       </c>
       <c r="F212" t="n">
-        <v>4721.8354</v>
+        <v>35101.3478</v>
       </c>
       <c r="G212" t="n">
-        <v>15.80000000000001</v>
+        <v>15.90666666666666</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7932,10 +7948,10 @@
         <v>15.8</v>
       </c>
       <c r="F213" t="n">
-        <v>3754.9367</v>
+        <v>4721.8354</v>
       </c>
       <c r="G213" t="n">
-        <v>15.80000000000002</v>
+        <v>15.90833333333332</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7955,22 +7971,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C214" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D214" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E214" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F214" t="n">
-        <v>65288.6545</v>
+        <v>3754.9367</v>
       </c>
       <c r="G214" t="n">
-        <v>15.76666666666669</v>
+        <v>15.90999999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7985,6 +8001,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C215" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D215" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E215" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F215" t="n">
+        <v>65288.6545</v>
+      </c>
+      <c r="G215" t="n">
+        <v>15.90833333333332</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-31 BackTest MITH.xlsx
+++ b/BackTest/2019-10-31 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>8602.6721</v>
       </c>
       <c r="G2" t="n">
+        <v>15.57333333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>15.69166666666669</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5793.9968</v>
       </c>
       <c r="G3" t="n">
+        <v>15.57999999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>15.68666666666669</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>40000</v>
       </c>
       <c r="G4" t="n">
+        <v>15.58666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>15.68000000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
+        <v>15.59999999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>15.67333333333336</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3450.0892</v>
       </c>
       <c r="G6" t="n">
+        <v>15.60666666666665</v>
+      </c>
+      <c r="H6" t="n">
         <v>15.66666666666669</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>6378.2051</v>
       </c>
       <c r="G7" t="n">
+        <v>15.60666666666665</v>
+      </c>
+      <c r="H7" t="n">
         <v>15.65833333333336</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3360.7057</v>
       </c>
       <c r="G8" t="n">
+        <v>15.60666666666665</v>
+      </c>
+      <c r="H8" t="n">
         <v>15.65000000000003</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3017.4994</v>
       </c>
       <c r="G9" t="n">
+        <v>15.60666666666665</v>
+      </c>
+      <c r="H9" t="n">
         <v>15.64166666666669</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>6982.5006</v>
       </c>
       <c r="G10" t="n">
+        <v>15.61333333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>15.63500000000002</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>29200</v>
       </c>
       <c r="G11" t="n">
+        <v>15.61333333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>15.63000000000003</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>36</v>
       </c>
       <c r="G12" t="n">
+        <v>15.61999999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>15.62833333333336</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1000</v>
       </c>
       <c r="G13" t="n">
+        <v>15.61999999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>15.62333333333336</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>12820.5128</v>
       </c>
       <c r="G14" t="n">
+        <v>15.61999999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>15.62000000000003</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>5641.1863</v>
       </c>
       <c r="G15" t="n">
+        <v>15.61333333333332</v>
+      </c>
+      <c r="H15" t="n">
         <v>15.61333333333336</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>21897.136</v>
       </c>
       <c r="G16" t="n">
+        <v>15.61999999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>15.61000000000003</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>4645.587</v>
       </c>
       <c r="G17" t="n">
+        <v>15.61333333333332</v>
+      </c>
+      <c r="H17" t="n">
         <v>15.60833333333336</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3071.476</v>
       </c>
       <c r="G18" t="n">
+        <v>15.59999999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>15.6066666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2264.817</v>
       </c>
       <c r="G19" t="n">
+        <v>15.59999999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>15.6066666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>738.7746</v>
       </c>
       <c r="G20" t="n">
+        <v>15.59333333333332</v>
+      </c>
+      <c r="H20" t="n">
         <v>15.6066666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>54924.7622</v>
       </c>
       <c r="G21" t="n">
+        <v>15.58666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>15.6066666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>31130.739</v>
       </c>
       <c r="G22" t="n">
+        <v>15.57999999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>15.60500000000003</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>7274.502</v>
       </c>
       <c r="G23" t="n">
+        <v>15.57333333333332</v>
+      </c>
+      <c r="H23" t="n">
         <v>15.60500000000003</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
+        <v>15.57333333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>15.6066666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1623.2051</v>
       </c>
       <c r="G25" t="n">
+        <v>15.57333333333332</v>
+      </c>
+      <c r="H25" t="n">
         <v>15.60833333333336</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>3000</v>
       </c>
       <c r="G26" t="n">
+        <v>15.57333333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>15.60833333333336</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>40263.0128</v>
       </c>
       <c r="G27" t="n">
+        <v>15.55999999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>15.60833333333336</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>26600</v>
       </c>
       <c r="G28" t="n">
+        <v>15.55333333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>15.6066666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>55433.074</v>
       </c>
       <c r="G29" t="n">
+        <v>15.53999999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>15.60500000000003</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>73811.22870000001</v>
       </c>
       <c r="G30" t="n">
+        <v>15.52666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>15.60333333333336</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>4711.7168</v>
       </c>
       <c r="G31" t="n">
+        <v>15.50666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>15.59833333333336</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>65922.1489</v>
       </c>
       <c r="G32" t="n">
+        <v>15.49333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>15.59166666666669</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>65330.3243</v>
       </c>
       <c r="G33" t="n">
+        <v>15.48666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>15.58666666666669</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>0.0003</v>
       </c>
       <c r="G34" t="n">
+        <v>15.47333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>15.58166666666669</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>45147.0402</v>
       </c>
       <c r="G35" t="n">
+        <v>15.45333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>15.57500000000002</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>5002.9293</v>
       </c>
       <c r="G36" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="H36" t="n">
         <v>15.56833333333335</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>26569.5347</v>
       </c>
       <c r="G37" t="n">
+        <v>15.42666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>15.56166666666669</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>157592.0125</v>
       </c>
       <c r="G38" t="n">
+        <v>15.40666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>15.55333333333335</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1000</v>
       </c>
       <c r="G39" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="H39" t="n">
         <v>15.54666666666669</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,25 @@
         <v>78313.3931</v>
       </c>
       <c r="G40" t="n">
+        <v>15.35333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>15.53833333333335</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1939,29 @@
         <v>7430.8411</v>
       </c>
       <c r="G41" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="H41" t="n">
         <v>15.52833333333335</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1985,29 @@
         <v>49900</v>
       </c>
       <c r="G42" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H42" t="n">
         <v>15.52000000000002</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2031,25 @@
         <v>30000</v>
       </c>
       <c r="G43" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="H43" t="n">
         <v>15.51166666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2073,27 @@
         <v>68400</v>
       </c>
       <c r="G44" t="n">
+        <v>15.26666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>15.50333333333335</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2117,29 @@
         <v>3000</v>
       </c>
       <c r="G45" t="n">
+        <v>15.24666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>15.49333333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2163,27 @@
         <v>4117.2271</v>
       </c>
       <c r="G46" t="n">
+        <v>15.23999999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>15.48500000000002</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2207,29 @@
         <v>128</v>
       </c>
       <c r="G47" t="n">
+        <v>15.22666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>15.47666666666669</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2253,29 @@
         <v>45.0263</v>
       </c>
       <c r="G48" t="n">
+        <v>15.21333333333332</v>
+      </c>
+      <c r="H48" t="n">
         <v>15.47000000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2299,27 @@
         <v>99.1447</v>
       </c>
       <c r="G49" t="n">
+        <v>15.19999999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>15.46500000000002</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,22 +2343,27 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
+        <v>15.18666666666665</v>
+      </c>
+      <c r="H50" t="n">
         <v>15.45833333333335</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2167,26 +2387,29 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
+        <v>15.17999999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>15.45333333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>15.1</v>
       </c>
-      <c r="K51" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,26 +2433,29 @@
         <v>1810.7583</v>
       </c>
       <c r="G52" t="n">
+        <v>15.16666666666665</v>
+      </c>
+      <c r="H52" t="n">
         <v>15.44500000000002</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>15.2</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,26 +2479,29 @@
         <v>91248.61840000001</v>
       </c>
       <c r="G53" t="n">
+        <v>15.15999999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>15.43666666666669</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
         <v>15.1</v>
       </c>
-      <c r="K53" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2296,26 +2525,29 @@
         <v>1000</v>
       </c>
       <c r="G54" t="n">
+        <v>15.15999999999999</v>
+      </c>
+      <c r="H54" t="n">
         <v>15.43000000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
         <v>15.1</v>
       </c>
-      <c r="K54" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,26 +2571,29 @@
         <v>342.7924</v>
       </c>
       <c r="G55" t="n">
+        <v>15.15999999999999</v>
+      </c>
+      <c r="H55" t="n">
         <v>15.42500000000002</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>15.2</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2382,26 +2617,29 @@
         <v>155500</v>
       </c>
       <c r="G56" t="n">
+        <v>15.17333333333332</v>
+      </c>
+      <c r="H56" t="n">
         <v>15.42000000000002</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>15.2</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2425,24 +2663,29 @@
         <v>30000</v>
       </c>
       <c r="G57" t="n">
+        <v>15.18666666666665</v>
+      </c>
+      <c r="H57" t="n">
         <v>15.41666666666669</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2466,24 +2709,27 @@
         <v>50000</v>
       </c>
       <c r="G58" t="n">
+        <v>15.20666666666665</v>
+      </c>
+      <c r="H58" t="n">
         <v>15.41500000000002</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2507,24 +2753,27 @@
         <v>24100</v>
       </c>
       <c r="G59" t="n">
+        <v>15.23999999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>15.41666666666669</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,24 +2797,27 @@
         <v>30000</v>
       </c>
       <c r="G60" t="n">
+        <v>15.27333333333332</v>
+      </c>
+      <c r="H60" t="n">
         <v>15.41500000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2589,24 +2841,27 @@
         <v>189240.8333</v>
       </c>
       <c r="G61" t="n">
+        <v>15.29999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>15.41666666666669</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,24 +2885,27 @@
         <v>93657</v>
       </c>
       <c r="G62" t="n">
+        <v>15.33999999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>15.41833333333335</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,24 +2929,27 @@
         <v>182279.8725</v>
       </c>
       <c r="G63" t="n">
+        <v>15.37333333333332</v>
+      </c>
+      <c r="H63" t="n">
         <v>15.41833333333335</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2712,24 +2973,27 @@
         <v>145.4034</v>
       </c>
       <c r="G64" t="n">
+        <v>15.40666666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>15.42000000000002</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2753,24 +3017,27 @@
         <v>81702.2151</v>
       </c>
       <c r="G65" t="n">
+        <v>15.45333333333332</v>
+      </c>
+      <c r="H65" t="n">
         <v>15.42166666666669</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,24 +3061,27 @@
         <v>953572.5649999999</v>
       </c>
       <c r="G66" t="n">
+        <v>15.48666666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>15.42333333333335</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2835,725 +3105,908 @@
         <v>85192.8511</v>
       </c>
       <c r="G67" t="n">
+        <v>15.54666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>15.43000000000002</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>16</v>
+      </c>
+      <c r="D68" t="n">
+        <v>16</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>189735.487</v>
+      </c>
+      <c r="G68" t="n">
+        <v>15.60666666666666</v>
+      </c>
+      <c r="H68" t="n">
+        <v>15.43666666666669</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>16</v>
+      </c>
+      <c r="C69" t="n">
+        <v>16</v>
+      </c>
+      <c r="D69" t="n">
+        <v>16</v>
+      </c>
+      <c r="E69" t="n">
+        <v>16</v>
+      </c>
+      <c r="F69" t="n">
+        <v>11</v>
+      </c>
+      <c r="G69" t="n">
+        <v>15.65999999999999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>15.44333333333335</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7289.9367</v>
+      </c>
+      <c r="G70" t="n">
+        <v>15.69999999999999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>15.44666666666668</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>44720.6329</v>
+      </c>
+      <c r="G71" t="n">
+        <v>15.73333333333333</v>
+      </c>
+      <c r="H71" t="n">
+        <v>15.45000000000002</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>92600</v>
+      </c>
+      <c r="G72" t="n">
+        <v>15.75999999999999</v>
+      </c>
+      <c r="H72" t="n">
+        <v>15.45166666666668</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C73" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F73" t="n">
+        <v>176027.061</v>
+      </c>
+      <c r="G73" t="n">
+        <v>15.76666666666666</v>
+      </c>
+      <c r="H73" t="n">
+        <v>15.45166666666668</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C74" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F74" t="n">
+        <v>117808.6714</v>
+      </c>
+      <c r="G74" t="n">
+        <v>15.75999999999999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15.45166666666668</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F75" t="n">
+        <v>88578.3861</v>
+      </c>
+      <c r="G75" t="n">
+        <v>15.75999999999999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>15.45166666666668</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C76" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D76" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F76" t="n">
+        <v>15246.0545</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15.76666666666666</v>
+      </c>
+      <c r="H76" t="n">
+        <v>15.45333333333335</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C77" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3171.719</v>
+      </c>
+      <c r="G77" t="n">
+        <v>15.75999999999999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>15.45500000000002</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C78" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F78" t="n">
+        <v>16311.7529</v>
+      </c>
+      <c r="G78" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H78" t="n">
+        <v>15.45666666666668</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C79" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D79" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>40100</v>
+      </c>
+      <c r="G79" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H79" t="n">
+        <v>15.45833333333335</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D80" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>50200</v>
+      </c>
+      <c r="G80" t="n">
+        <v>15.74666666666666</v>
+      </c>
+      <c r="H80" t="n">
+        <v>15.46000000000002</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F81" t="n">
+        <v>56432</v>
+      </c>
+      <c r="G81" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H81" t="n">
+        <v>15.46500000000002</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E82" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17594.5509</v>
+      </c>
+      <c r="G82" t="n">
+        <v>15.73999999999999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>15.47000000000002</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C83" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100235.7215</v>
+      </c>
+      <c r="G83" t="n">
+        <v>15.73333333333333</v>
+      </c>
+      <c r="H83" t="n">
+        <v>15.47666666666668</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>16</v>
+      </c>
+      <c r="D84" t="n">
+        <v>16</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>15.73333333333333</v>
+      </c>
+      <c r="H84" t="n">
+        <v>15.48333333333335</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C85" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>111451.8215</v>
+      </c>
+      <c r="G85" t="n">
+        <v>15.73999999999999</v>
+      </c>
+      <c r="H85" t="n">
+        <v>15.48833333333335</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C86" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E86" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>15.73999999999999</v>
+      </c>
+      <c r="H86" t="n">
+        <v>15.49166666666668</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D87" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F87" t="n">
+        <v>182766.2658</v>
+      </c>
+      <c r="G87" t="n">
+        <v>15.73999999999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>15.49666666666668</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1.047631578947368</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C68" t="n">
-        <v>16</v>
-      </c>
-      <c r="D68" t="n">
-        <v>16</v>
-      </c>
-      <c r="E68" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>189735.487</v>
-      </c>
-      <c r="G68" t="n">
-        <v>15.43666666666669</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>16</v>
-      </c>
-      <c r="C69" t="n">
-        <v>16</v>
-      </c>
-      <c r="D69" t="n">
-        <v>16</v>
-      </c>
-      <c r="E69" t="n">
-        <v>16</v>
-      </c>
-      <c r="F69" t="n">
-        <v>11</v>
-      </c>
-      <c r="G69" t="n">
-        <v>15.44333333333335</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C70" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D70" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E70" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7289.9367</v>
-      </c>
-      <c r="G70" t="n">
-        <v>15.44666666666668</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C71" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D71" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E71" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F71" t="n">
-        <v>44720.6329</v>
-      </c>
-      <c r="G71" t="n">
-        <v>15.45000000000002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C72" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D72" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E72" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F72" t="n">
-        <v>92600</v>
-      </c>
-      <c r="G72" t="n">
-        <v>15.45166666666668</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C73" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D73" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E73" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F73" t="n">
-        <v>176027.061</v>
-      </c>
-      <c r="G73" t="n">
-        <v>15.45166666666668</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F74" t="n">
-        <v>117808.6714</v>
-      </c>
-      <c r="G74" t="n">
-        <v>15.45166666666668</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C75" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D75" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E75" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F75" t="n">
-        <v>88578.3861</v>
-      </c>
-      <c r="G75" t="n">
-        <v>15.45166666666668</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C76" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D76" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E76" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F76" t="n">
-        <v>15246.0545</v>
-      </c>
-      <c r="G76" t="n">
-        <v>15.45333333333335</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C77" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D77" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E77" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3171.719</v>
-      </c>
-      <c r="G77" t="n">
-        <v>15.45500000000002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C78" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D78" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E78" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F78" t="n">
-        <v>16311.7529</v>
-      </c>
-      <c r="G78" t="n">
-        <v>15.45666666666668</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C79" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D79" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E79" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F79" t="n">
-        <v>40100</v>
-      </c>
-      <c r="G79" t="n">
-        <v>15.45833333333335</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C80" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D80" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E80" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F80" t="n">
-        <v>50200</v>
-      </c>
-      <c r="G80" t="n">
-        <v>15.46000000000002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C81" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D81" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E81" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F81" t="n">
-        <v>56432</v>
-      </c>
-      <c r="G81" t="n">
-        <v>15.46500000000002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C82" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D82" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E82" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F82" t="n">
-        <v>17594.5509</v>
-      </c>
-      <c r="G82" t="n">
-        <v>15.47000000000002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C83" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D83" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F83" t="n">
-        <v>100235.7215</v>
-      </c>
-      <c r="G83" t="n">
-        <v>15.47666666666668</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="C84" t="n">
-        <v>16</v>
-      </c>
-      <c r="D84" t="n">
-        <v>16</v>
-      </c>
-      <c r="E84" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F84" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G84" t="n">
-        <v>15.48333333333335</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="C85" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D85" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E85" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F85" t="n">
-        <v>111451.8215</v>
-      </c>
-      <c r="G85" t="n">
-        <v>15.48833333333335</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C86" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D86" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F86" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G86" t="n">
-        <v>15.49166666666668</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C87" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D87" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E87" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F87" t="n">
-        <v>182766.2658</v>
-      </c>
-      <c r="G87" t="n">
-        <v>15.49666666666668</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
+      <c r="N87" t="n">
+        <v>1.034473684210526</v>
       </c>
     </row>
     <row r="88">
@@ -3576,18 +4029,21 @@
         <v>37574.2294</v>
       </c>
       <c r="G88" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>15.50166666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3611,18 +4067,21 @@
         <v>19700</v>
       </c>
       <c r="G89" t="n">
+        <v>15.76666666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>15.50833333333335</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,18 +4105,21 @@
         <v>16633</v>
       </c>
       <c r="G90" t="n">
+        <v>15.77333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>15.51333333333335</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3681,18 +4143,21 @@
         <v>20400</v>
       </c>
       <c r="G91" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="H91" t="n">
         <v>15.52166666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,18 +4181,21 @@
         <v>35700</v>
       </c>
       <c r="G92" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H92" t="n">
         <v>15.53166666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3751,18 +4219,21 @@
         <v>250000</v>
       </c>
       <c r="G93" t="n">
+        <v>15.82666666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>15.54166666666668</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,18 +4257,21 @@
         <v>20</v>
       </c>
       <c r="G94" t="n">
+        <v>15.82666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>15.54666666666668</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3821,18 +4295,21 @@
         <v>64814.3627</v>
       </c>
       <c r="G95" t="n">
+        <v>15.82666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>15.55333333333335</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3856,18 +4333,21 @@
         <v>22810.0002</v>
       </c>
       <c r="G96" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="H96" t="n">
         <v>15.56000000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3891,18 +4371,21 @@
         <v>49990</v>
       </c>
       <c r="G97" t="n">
+        <v>15.80666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>15.56500000000002</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,18 +4409,21 @@
         <v>1106.4044</v>
       </c>
       <c r="G98" t="n">
+        <v>15.78666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>15.57166666666668</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3961,18 +4447,21 @@
         <v>42004.3625</v>
       </c>
       <c r="G99" t="n">
+        <v>15.75999999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>15.57833333333335</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3996,18 +4485,21 @@
         <v>6142.2292</v>
       </c>
       <c r="G100" t="n">
+        <v>15.74666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>15.58666666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4031,18 +4523,21 @@
         <v>215099.8872</v>
       </c>
       <c r="G101" t="n">
+        <v>15.72666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>15.59333333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,18 +4561,21 @@
         <v>4598.7513</v>
       </c>
       <c r="G102" t="n">
+        <v>15.70666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>15.59833333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4101,18 +4599,21 @@
         <v>67096.97500000001</v>
       </c>
       <c r="G103" t="n">
+        <v>15.69333333333332</v>
+      </c>
+      <c r="H103" t="n">
         <v>15.60500000000002</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,18 +4637,21 @@
         <v>7474.7957</v>
       </c>
       <c r="G104" t="n">
+        <v>15.66666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>15.60833333333335</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,18 +4675,21 @@
         <v>1000</v>
       </c>
       <c r="G105" t="n">
+        <v>15.65999999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>15.61666666666668</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,18 +4713,21 @@
         <v>101040.1923</v>
       </c>
       <c r="G106" t="n">
+        <v>15.64666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>15.62333333333335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4241,18 +4751,21 @@
         <v>20000</v>
       </c>
       <c r="G107" t="n">
+        <v>15.63333333333332</v>
+      </c>
+      <c r="H107" t="n">
         <v>15.63333333333335</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,18 +4789,21 @@
         <v>92401</v>
       </c>
       <c r="G108" t="n">
+        <v>15.61333333333332</v>
+      </c>
+      <c r="H108" t="n">
         <v>15.64166666666668</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4311,18 +4827,21 @@
         <v>66000</v>
       </c>
       <c r="G109" t="n">
+        <v>15.61333333333332</v>
+      </c>
+      <c r="H109" t="n">
         <v>15.65000000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,18 +4865,21 @@
         <v>66000</v>
       </c>
       <c r="G110" t="n">
+        <v>15.61333333333332</v>
+      </c>
+      <c r="H110" t="n">
         <v>15.66000000000002</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4381,18 +4903,21 @@
         <v>8020</v>
       </c>
       <c r="G111" t="n">
+        <v>15.61999999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>15.67000000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,18 +4941,21 @@
         <v>12556.8334</v>
       </c>
       <c r="G112" t="n">
+        <v>15.62666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>15.68000000000001</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4451,18 +4979,21 @@
         <v>30000</v>
       </c>
       <c r="G113" t="n">
+        <v>15.63999999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>15.69166666666668</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,18 +5017,21 @@
         <v>44947</v>
       </c>
       <c r="G114" t="n">
+        <v>15.65333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>15.70166666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4521,18 +5055,21 @@
         <v>2634.2937</v>
       </c>
       <c r="G115" t="n">
+        <v>15.65999999999999</v>
+      </c>
+      <c r="H115" t="n">
         <v>15.71166666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,18 +5093,21 @@
         <v>23600</v>
       </c>
       <c r="G116" t="n">
+        <v>15.68666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>15.72166666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4591,18 +5131,21 @@
         <v>416.0606</v>
       </c>
       <c r="G117" t="n">
+        <v>15.70666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>15.72833333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,18 +5169,21 @@
         <v>100782.0714</v>
       </c>
       <c r="G118" t="n">
+        <v>15.71333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>15.73166666666668</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4661,18 +5207,21 @@
         <v>9834</v>
       </c>
       <c r="G119" t="n">
+        <v>15.73999999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>15.73333333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,18 +5245,21 @@
         <v>10016</v>
       </c>
       <c r="G120" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>15.73666666666668</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4731,18 +5283,21 @@
         <v>2340</v>
       </c>
       <c r="G121" t="n">
+        <v>15.75999999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>15.73833333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4766,18 +5321,21 @@
         <v>3232.7579</v>
       </c>
       <c r="G122" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>15.73666666666668</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4801,18 +5359,21 @@
         <v>3232.758</v>
       </c>
       <c r="G123" t="n">
+        <v>15.74666666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>15.73500000000001</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,18 +5397,21 @@
         <v>1970</v>
       </c>
       <c r="G124" t="n">
+        <v>15.74666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>15.73500000000001</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4871,18 +5435,21 @@
         <v>8000</v>
       </c>
       <c r="G125" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>15.73500000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,18 +5473,21 @@
         <v>25701</v>
       </c>
       <c r="G126" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>15.73666666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4941,18 +5511,21 @@
         <v>7000</v>
       </c>
       <c r="G127" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H127" t="n">
         <v>15.73333333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4976,18 +5549,21 @@
         <v>5436</v>
       </c>
       <c r="G128" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H128" t="n">
         <v>15.73000000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5011,18 +5587,21 @@
         <v>24000</v>
       </c>
       <c r="G129" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H129" t="n">
         <v>15.72666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5046,18 +5625,21 @@
         <v>15619</v>
       </c>
       <c r="G130" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H130" t="n">
         <v>15.72666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5081,18 +5663,21 @@
         <v>6680.0632</v>
       </c>
       <c r="G131" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>15.72666666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5116,18 +5701,21 @@
         <v>114451.027</v>
       </c>
       <c r="G132" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="H132" t="n">
         <v>15.72333333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5151,18 +5739,21 @@
         <v>12.0987</v>
       </c>
       <c r="G133" t="n">
+        <v>15.73333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>15.72333333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5186,18 +5777,21 @@
         <v>5489.3031</v>
       </c>
       <c r="G134" t="n">
+        <v>15.71333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>15.72166666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5221,18 +5815,21 @@
         <v>56581.5783</v>
       </c>
       <c r="G135" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H135" t="n">
         <v>15.72166666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5256,18 +5853,21 @@
         <v>4204.5726</v>
       </c>
       <c r="G136" t="n">
+        <v>15.68666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>15.71833333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5291,18 +5891,21 @@
         <v>20000</v>
       </c>
       <c r="G137" t="n">
+        <v>15.67333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>15.715</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,18 +5929,21 @@
         <v>10</v>
       </c>
       <c r="G138" t="n">
+        <v>15.67333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>15.715</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5361,18 +5967,21 @@
         <v>9100</v>
       </c>
       <c r="G139" t="n">
+        <v>15.66666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>15.71333333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5396,18 +6005,21 @@
         <v>38461.5384</v>
       </c>
       <c r="G140" t="n">
+        <v>15.65333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>15.71166666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5431,18 +6043,21 @@
         <v>6600</v>
       </c>
       <c r="G141" t="n">
+        <v>15.63333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>15.70666666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5466,18 +6081,21 @@
         <v>6465.5158</v>
       </c>
       <c r="G142" t="n">
+        <v>15.61333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>15.70166666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5501,18 +6119,21 @@
         <v>12600</v>
       </c>
       <c r="G143" t="n">
+        <v>15.59999999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>15.69666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5536,18 +6157,21 @@
         <v>1763.2692</v>
       </c>
       <c r="G144" t="n">
+        <v>15.58666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>15.69</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5571,18 +6195,21 @@
         <v>20000</v>
       </c>
       <c r="G145" t="n">
+        <v>15.57999999999999</v>
+      </c>
+      <c r="H145" t="n">
         <v>15.68666666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,18 +6233,21 @@
         <v>4313.6422</v>
       </c>
       <c r="G146" t="n">
+        <v>15.56666666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>15.68333333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5641,18 +6271,21 @@
         <v>990</v>
       </c>
       <c r="G147" t="n">
+        <v>15.56666666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>15.68000000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5676,18 +6309,21 @@
         <v>163012.564</v>
       </c>
       <c r="G148" t="n">
+        <v>15.56666666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>15.67666666666668</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5711,18 +6347,21 @@
         <v>161700</v>
       </c>
       <c r="G149" t="n">
+        <v>15.57333333333332</v>
+      </c>
+      <c r="H149" t="n">
         <v>15.67333333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5746,18 +6385,21 @@
         <v>44400</v>
       </c>
       <c r="G150" t="n">
+        <v>15.57999999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>15.67333333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5781,18 +6423,21 @@
         <v>170200</v>
       </c>
       <c r="G151" t="n">
+        <v>15.60666666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>15.67500000000001</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5816,18 +6461,21 @@
         <v>9100</v>
       </c>
       <c r="G152" t="n">
+        <v>15.63999999999999</v>
+      </c>
+      <c r="H152" t="n">
         <v>15.67500000000001</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5851,18 +6499,21 @@
         <v>150985.2674</v>
       </c>
       <c r="G153" t="n">
+        <v>15.64666666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>15.67000000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5886,18 +6537,21 @@
         <v>9484</v>
       </c>
       <c r="G154" t="n">
+        <v>15.65333333333332</v>
+      </c>
+      <c r="H154" t="n">
         <v>15.67000000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5921,18 +6575,21 @@
         <v>19600</v>
       </c>
       <c r="G155" t="n">
+        <v>15.66666666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>15.67166666666668</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,18 +6613,21 @@
         <v>36900</v>
       </c>
       <c r="G156" t="n">
+        <v>15.67999999999999</v>
+      </c>
+      <c r="H156" t="n">
         <v>15.67166666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5991,18 +6651,21 @@
         <v>49900</v>
       </c>
       <c r="G157" t="n">
+        <v>15.69999999999999</v>
+      </c>
+      <c r="H157" t="n">
         <v>15.67500000000001</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6026,18 +6689,21 @@
         <v>1000</v>
       </c>
       <c r="G158" t="n">
+        <v>15.71333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>15.67833333333334</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6061,18 +6727,21 @@
         <v>35752.4973</v>
       </c>
       <c r="G159" t="n">
+        <v>15.71999999999999</v>
+      </c>
+      <c r="H159" t="n">
         <v>15.68000000000001</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6096,18 +6765,21 @@
         <v>34988.0379</v>
       </c>
       <c r="G160" t="n">
+        <v>15.72666666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>15.68166666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6131,18 +6803,21 @@
         <v>72400</v>
       </c>
       <c r="G161" t="n">
+        <v>15.74666666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>15.68833333333334</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6166,18 +6841,21 @@
         <v>56182.9595</v>
       </c>
       <c r="G162" t="n">
+        <v>15.76666666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>15.69500000000001</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6201,18 +6879,21 @@
         <v>188865</v>
       </c>
       <c r="G163" t="n">
+        <v>15.79333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>15.70166666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6236,18 +6917,21 @@
         <v>41507.679</v>
       </c>
       <c r="G164" t="n">
+        <v>15.81333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>15.71000000000001</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6271,18 +6955,21 @@
         <v>29.3167</v>
       </c>
       <c r="G165" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="H165" t="n">
         <v>15.71833333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6306,18 +6993,21 @@
         <v>11642.8571</v>
       </c>
       <c r="G166" t="n">
+        <v>15.85333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>15.72666666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6341,18 +7031,21 @@
         <v>11613.75</v>
       </c>
       <c r="G167" t="n">
+        <v>15.85999999999999</v>
+      </c>
+      <c r="H167" t="n">
         <v>15.73166666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6376,18 +7069,21 @@
         <v>9879.1034</v>
       </c>
       <c r="G168" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="H168" t="n">
         <v>15.73666666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6411,18 +7107,21 @@
         <v>6695.8634</v>
       </c>
       <c r="G169" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H169" t="n">
         <v>15.74166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6446,18 +7145,21 @@
         <v>4264.5341</v>
       </c>
       <c r="G170" t="n">
+        <v>15.91999999999999</v>
+      </c>
+      <c r="H170" t="n">
         <v>15.74833333333334</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6481,18 +7183,21 @@
         <v>4500.915</v>
       </c>
       <c r="G171" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="H171" t="n">
         <v>15.75166666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6516,18 +7221,21 @@
         <v>1000</v>
       </c>
       <c r="G172" t="n">
+        <v>15.95333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>15.75666666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6551,18 +7259,21 @@
         <v>18500</v>
       </c>
       <c r="G173" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="H173" t="n">
         <v>15.75833333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6586,18 +7297,21 @@
         <v>83560.6303</v>
       </c>
       <c r="G174" t="n">
+        <v>15.97333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>15.76</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6621,18 +7335,21 @@
         <v>10</v>
       </c>
       <c r="G175" t="n">
+        <v>15.99333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>15.76500000000001</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6656,18 +7373,21 @@
         <v>88717.9359</v>
       </c>
       <c r="G176" t="n">
+        <v>15.99999999999999</v>
+      </c>
+      <c r="H176" t="n">
         <v>15.76666666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6691,18 +7411,21 @@
         <v>14000</v>
       </c>
       <c r="G177" t="n">
+        <v>15.99999999999999</v>
+      </c>
+      <c r="H177" t="n">
         <v>15.76833333333334</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6726,18 +7449,21 @@
         <v>2220</v>
       </c>
       <c r="G178" t="n">
+        <v>15.99333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>15.77166666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6761,18 +7487,21 @@
         <v>2222</v>
       </c>
       <c r="G179" t="n">
+        <v>15.99999999999999</v>
+      </c>
+      <c r="H179" t="n">
         <v>15.77500000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6796,18 +7525,21 @@
         <v>32669.1467</v>
       </c>
       <c r="G180" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="H180" t="n">
         <v>15.77500000000001</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6831,18 +7563,21 @@
         <v>245628.7892</v>
       </c>
       <c r="G181" t="n">
+        <v>15.96666666666666</v>
+      </c>
+      <c r="H181" t="n">
         <v>15.77833333333334</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6866,18 +7601,21 @@
         <v>1983.1758</v>
       </c>
       <c r="G182" t="n">
+        <v>15.95333333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>15.78166666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6901,18 +7639,21 @@
         <v>32544.0251</v>
       </c>
       <c r="G183" t="n">
+        <v>15.94666666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>15.78666666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6936,18 +7677,21 @@
         <v>5679.925</v>
       </c>
       <c r="G184" t="n">
+        <v>15.94666666666666</v>
+      </c>
+      <c r="H184" t="n">
         <v>15.79166666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6971,18 +7715,21 @@
         <v>5171.618</v>
       </c>
       <c r="G185" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="H185" t="n">
         <v>15.795</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7006,18 +7753,21 @@
         <v>13500</v>
       </c>
       <c r="G186" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="H186" t="n">
         <v>15.79833333333334</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7041,18 +7791,21 @@
         <v>50</v>
       </c>
       <c r="G187" t="n">
+        <v>15.92666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>15.79833333333334</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7076,18 +7829,21 @@
         <v>12</v>
       </c>
       <c r="G188" t="n">
+        <v>15.93333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>15.80166666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7111,18 +7867,21 @@
         <v>14726.4279</v>
       </c>
       <c r="G189" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="H189" t="n">
         <v>15.80500000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7146,18 +7905,21 @@
         <v>97709.125</v>
       </c>
       <c r="G190" t="n">
+        <v>15.93333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>15.80833333333334</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7181,18 +7943,21 @@
         <v>76310.5365</v>
       </c>
       <c r="G191" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="H191" t="n">
         <v>15.80833333333334</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7216,18 +7981,21 @@
         <v>82878</v>
       </c>
       <c r="G192" t="n">
+        <v>15.92666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>15.815</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7251,18 +8019,21 @@
         <v>5008.8665</v>
       </c>
       <c r="G193" t="n">
+        <v>15.92666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>15.82</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7286,18 +8057,21 @@
         <v>5022.4232</v>
       </c>
       <c r="G194" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="H194" t="n">
         <v>15.82666666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7321,18 +8095,21 @@
         <v>4297.3021</v>
       </c>
       <c r="G195" t="n">
+        <v>15.92666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>15.83166666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7356,18 +8133,21 @@
         <v>5082.4369</v>
       </c>
       <c r="G196" t="n">
+        <v>15.92666666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>15.83833333333334</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7391,18 +8171,21 @@
         <v>25853.1329</v>
       </c>
       <c r="G197" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="H197" t="n">
         <v>15.84833333333334</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7426,18 +8209,21 @@
         <v>5266.458</v>
       </c>
       <c r="G198" t="n">
+        <v>15.94666666666666</v>
+      </c>
+      <c r="H198" t="n">
         <v>15.855</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7461,18 +8247,21 @@
         <v>20000</v>
       </c>
       <c r="G199" t="n">
+        <v>15.94666666666666</v>
+      </c>
+      <c r="H199" t="n">
         <v>15.86166666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7496,18 +8285,21 @@
         <v>18100</v>
       </c>
       <c r="G200" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="H200" t="n">
         <v>15.86666666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7531,18 +8323,21 @@
         <v>10800</v>
       </c>
       <c r="G201" t="n">
+        <v>15.93333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>15.87333333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7566,18 +8361,21 @@
         <v>63378.243</v>
       </c>
       <c r="G202" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="H202" t="n">
         <v>15.88</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7601,18 +8399,21 @@
         <v>22560.4639</v>
       </c>
       <c r="G203" t="n">
+        <v>15.92666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>15.88333333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7636,18 +8437,21 @@
         <v>48732.426</v>
       </c>
       <c r="G204" t="n">
+        <v>15.91333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>15.88666666666666</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7671,18 +8475,21 @@
         <v>28997.093</v>
       </c>
       <c r="G205" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H205" t="n">
         <v>15.88833333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7706,18 +8513,21 @@
         <v>3172.1102</v>
       </c>
       <c r="G206" t="n">
+        <v>15.90666666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>15.89333333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,18 +8551,21 @@
         <v>94755.9748</v>
       </c>
       <c r="G207" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H207" t="n">
         <v>15.89833333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7776,18 +8589,21 @@
         <v>21587.4198</v>
       </c>
       <c r="G208" t="n">
+        <v>15.89333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>15.90166666666666</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7811,18 +8627,21 @@
         <v>62288.8125</v>
       </c>
       <c r="G209" t="n">
+        <v>15.89333333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>15.90666666666666</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7846,18 +8665,21 @@
         <v>8160</v>
       </c>
       <c r="G210" t="n">
+        <v>15.89333333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>15.90999999999999</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7881,18 +8703,21 @@
         <v>40088</v>
       </c>
       <c r="G211" t="n">
+        <v>15.88666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>15.90833333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7916,18 +8741,21 @@
         <v>35101.3478</v>
       </c>
       <c r="G212" t="n">
+        <v>15.87333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>15.90666666666666</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7951,18 +8779,21 @@
         <v>4721.8354</v>
       </c>
       <c r="G213" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="H213" t="n">
         <v>15.90833333333332</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7986,18 +8817,21 @@
         <v>3754.9367</v>
       </c>
       <c r="G214" t="n">
+        <v>15.84666666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>15.90999999999999</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8021,18 +8855,401 @@
         <v>65288.6545</v>
       </c>
       <c r="G215" t="n">
+        <v>15.83333333333334</v>
+      </c>
+      <c r="H215" t="n">
         <v>15.90833333333332</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C216" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D216" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E216" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F216" t="n">
+        <v>84089.0122</v>
+      </c>
+      <c r="G216" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="H216" t="n">
+        <v>15.90833333333332</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C217" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E217" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F217" t="n">
+        <v>27642.7029</v>
+      </c>
+      <c r="G217" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H217" t="n">
+        <v>15.90499999999999</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C218" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E218" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F218" t="n">
+        <v>18565.2498</v>
+      </c>
+      <c r="G218" t="n">
+        <v>15.78666666666667</v>
+      </c>
+      <c r="H218" t="n">
+        <v>15.90166666666666</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C219" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E219" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5768.8849</v>
+      </c>
+      <c r="G219" t="n">
+        <v>15.77333333333333</v>
+      </c>
+      <c r="H219" t="n">
+        <v>15.89999999999999</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C220" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E220" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F220" t="n">
+        <v>71236.43150000001</v>
+      </c>
+      <c r="G220" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H220" t="n">
+        <v>15.89666666666666</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C221" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E221" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F221" t="n">
+        <v>22972.5838</v>
+      </c>
+      <c r="G221" t="n">
+        <v>15.73333333333333</v>
+      </c>
+      <c r="H221" t="n">
+        <v>15.88999999999999</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C222" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D222" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E222" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F222" t="n">
+        <v>45956</v>
+      </c>
+      <c r="G222" t="n">
+        <v>15.73333333333333</v>
+      </c>
+      <c r="H222" t="n">
+        <v>15.88999999999999</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C223" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D223" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E223" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F223" t="n">
+        <v>62526.2823</v>
+      </c>
+      <c r="G223" t="n">
+        <v>15.72666666666666</v>
+      </c>
+      <c r="H223" t="n">
+        <v>15.88499999999999</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C224" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D224" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E224" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F224" t="n">
+        <v>34900.5678</v>
+      </c>
+      <c r="G224" t="n">
+        <v>15.71333333333333</v>
+      </c>
+      <c r="H224" t="n">
+        <v>15.88166666666666</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C225" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D225" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E225" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F225" t="n">
+        <v>58000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>15.71333333333333</v>
+      </c>
+      <c r="H225" t="n">
+        <v>15.87833333333333</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest MITH.xlsx
+++ b/BackTest/2019-10-31 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N283"/>
+  <dimension ref="A1:M283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>2712458.490999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>2752468.490999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>2669264.026199999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>2669246.856399999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>2623310.464</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>2631695.9705</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>2612461.1682</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>2612471.1682</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>2252176.5007</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>1993161.1578</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>1993161.1578</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>2041774.978</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>2629541.6167</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>2606153.8251</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>2516215.796999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>2511811.7078</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,22 +3619,15 @@
         <v>2216699.643599999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K98" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3952,1148 +3652,1001 @@
         <v>2209268.802499999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
         <v>15.2</v>
       </c>
-      <c r="K99" t="n">
+      <c r="C100" t="n">
         <v>15.2</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="D100" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>49900</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2259168.802499999</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2259168.802499999</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>68400</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2259168.802499999</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2256168.802499999</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E104" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4117.2271</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2260286.029599999</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>128</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2260158.029599999</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>45.0263</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2260203.055899999</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>99.1447</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2260203.055899999</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2259203.055899999</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
         <v>15.2</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C109" t="n">
         <v>15.2</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D109" t="n">
         <v>15.2</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E109" t="n">
         <v>15.2</v>
       </c>
-      <c r="F100" t="n">
-        <v>49900</v>
-      </c>
-      <c r="G100" t="n">
-        <v>2259168.802499999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
+      <c r="F109" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2259213.055899999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="n">
         <v>15.1</v>
       </c>
-      <c r="K100" t="n">
+      <c r="J109" t="n">
         <v>15.2</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1810.7583</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2257402.297599999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="n">
         <v>15.2</v>
       </c>
-      <c r="C101" t="n">
+      <c r="J110" t="n">
         <v>15.2</v>
       </c>
-      <c r="D101" t="n">
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
         <v>15.2</v>
       </c>
-      <c r="E101" t="n">
+      <c r="C111" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D111" t="n">
         <v>15.2</v>
       </c>
-      <c r="F101" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>2259168.802499999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
+      <c r="E111" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>91248.61840000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2257402.297599999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J111" t="n">
         <v>15.2</v>
       </c>
-      <c r="K101" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D102" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E102" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>68400</v>
-      </c>
-      <c r="G102" t="n">
-        <v>2259168.802499999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K102" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
         <v>15.2</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2258402.297599999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" t="n">
         <v>15.1</v>
       </c>
-      <c r="D103" t="n">
+      <c r="J112" t="n">
         <v>15.2</v>
       </c>
-      <c r="E103" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2256168.802499999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K103" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
         <v>15.2</v>
       </c>
-      <c r="D104" t="n">
+      <c r="C113" t="n">
         <v>15.2</v>
       </c>
-      <c r="E104" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>4117.2271</v>
-      </c>
-      <c r="G104" t="n">
-        <v>2260286.029599999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K104" t="n">
+      <c r="D113" t="n">
         <v>15.2</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="E113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>342.7924</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2258402.297599999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
         <v>15.2</v>
       </c>
-      <c r="C105" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D105" t="n">
+      <c r="C114" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E114" t="n">
         <v>15.2</v>
       </c>
-      <c r="E105" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>128</v>
-      </c>
-      <c r="G105" t="n">
-        <v>2260158.029599999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
+      <c r="F114" t="n">
+        <v>155500</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2413902.297599999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="n">
         <v>15.2</v>
       </c>
-      <c r="K105" t="n">
+      <c r="J114" t="n">
         <v>15.2</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2443902.297599999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J115" t="n">
         <v>15.2</v>
       </c>
-      <c r="C106" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E106" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>45.0263</v>
-      </c>
-      <c r="G106" t="n">
-        <v>2260203.055899999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K106" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2493902.297599999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J116" t="n">
         <v>15.2</v>
       </c>
-      <c r="C107" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D107" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E107" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F107" t="n">
-        <v>99.1447</v>
-      </c>
-      <c r="G107" t="n">
-        <v>2260203.055899999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G108" t="n">
-        <v>2259203.055899999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D117" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>24100</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2518002.297599999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J117" t="n">
         <v>15.2</v>
       </c>
-      <c r="K108" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F118" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2488002.297599999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
         <v>15.2</v>
       </c>
-      <c r="C109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F109" t="n">
-        <v>10</v>
-      </c>
-      <c r="G109" t="n">
-        <v>2259213.055899999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1810.7583</v>
-      </c>
-      <c r="G110" t="n">
-        <v>2257402.297599999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C119" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>189240.8333</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2488002.297599999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
         <v>15.2</v>
       </c>
-      <c r="K110" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>93657</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2581659.297599999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
         <v>15.2</v>
       </c>
-      <c r="C111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>91248.61840000001</v>
-      </c>
-      <c r="G111" t="n">
-        <v>2257402.297599999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K111" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>182279.8725</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2581659.297599999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
         <v>15.2</v>
       </c>
-      <c r="C112" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G112" t="n">
-        <v>2258402.297599999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>145.4034</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2581659.297599999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
         <v>15.2</v>
       </c>
-      <c r="C113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>342.7924</v>
-      </c>
-      <c r="G113" t="n">
-        <v>2258402.297599999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>81702.2151</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2663361.512699999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
         <v>15.2</v>
       </c>
-      <c r="C114" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>155500</v>
-      </c>
-      <c r="G114" t="n">
-        <v>2413902.297599999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K114" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D115" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E115" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G115" t="n">
-        <v>2443902.297599999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K115" t="n">
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>953572.5649999999</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1709788.947699999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
         <v>15.2</v>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C116" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F116" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G116" t="n">
-        <v>2493902.297599999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K116" t="n">
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>16</v>
+      </c>
+      <c r="D125" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>85192.8511</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1794981.7988</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
         <v>15.2</v>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C117" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D117" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E117" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F117" t="n">
-        <v>24100</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2518002.297599999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C118" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D118" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E118" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F118" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G118" t="n">
-        <v>2488002.297599999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C119" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D119" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E119" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F119" t="n">
-        <v>189240.8333</v>
-      </c>
-      <c r="G119" t="n">
-        <v>2488002.297599999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C120" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D120" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E120" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F120" t="n">
-        <v>93657</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2581659.297599999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C121" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D121" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E121" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F121" t="n">
-        <v>182279.8725</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2581659.297599999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C122" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E122" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>145.4034</v>
-      </c>
-      <c r="G122" t="n">
-        <v>2581659.297599999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C123" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E123" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F123" t="n">
-        <v>81702.2151</v>
-      </c>
-      <c r="G123" t="n">
-        <v>2663361.512699999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D124" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E124" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F124" t="n">
-        <v>953572.5649999999</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1709788.947699999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C125" t="n">
-        <v>16</v>
-      </c>
-      <c r="D125" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F125" t="n">
-        <v>85192.8511</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1794981.7988</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5118,24 +4671,21 @@
         <v>1794981.7988</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
         <v>15.2</v>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1.047631578947368</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5162,22 +4712,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5204,22 +4745,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5244,24 +4776,15 @@
         <v>1787691.8621</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5286,24 +4809,15 @@
         <v>1787691.8621</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5328,24 +4842,15 @@
         <v>1611664.8011</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5372,22 +4877,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5414,22 +4910,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5456,22 +4943,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5498,22 +4976,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5540,22 +5009,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5582,22 +5042,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5624,22 +5075,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5666,22 +5108,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5708,22 +5141,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5750,22 +5174,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5790,24 +5205,15 @@
         <v>1828506.8581</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5832,24 +5238,15 @@
         <v>1717055.0366</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5874,24 +5271,15 @@
         <v>1693055.0366</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5916,24 +5304,15 @@
         <v>1693055.0366</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5960,22 +5339,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6002,22 +5372,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6044,22 +5405,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6086,22 +5438,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6128,22 +5471,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6170,22 +5504,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6212,22 +5537,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6254,22 +5570,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6296,22 +5603,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6338,22 +5636,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6380,22 +5669,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6422,22 +5702,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6464,22 +5735,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6506,22 +5768,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6548,22 +5801,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6590,22 +5834,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6632,22 +5867,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6674,22 +5900,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6716,22 +5933,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6758,22 +5966,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6800,22 +5999,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6842,22 +6032,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6884,22 +6065,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6926,22 +6098,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6968,22 +6131,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7010,22 +6164,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7052,22 +6197,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7094,22 +6230,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7136,22 +6263,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7178,22 +6296,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7220,22 +6329,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7260,24 +6360,15 @@
         <v>1761875.5925</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7302,24 +6393,15 @@
         <v>1761875.5925</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7346,22 +6428,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7388,22 +6461,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7430,22 +6494,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7472,22 +6527,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7514,22 +6560,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7556,22 +6593,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7598,22 +6626,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7638,24 +6657,15 @@
         <v>1766272.8346</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7682,22 +6692,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7724,22 +6725,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7766,22 +6758,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7806,24 +6789,15 @@
         <v>1651821.8076</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7850,22 +6824,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7892,22 +6857,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7934,22 +6890,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7976,22 +6923,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8018,22 +6956,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8060,22 +6989,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8102,22 +7022,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8144,22 +7055,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8186,22 +7088,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8228,22 +7121,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8270,22 +7154,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8312,22 +7187,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8354,22 +7220,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8396,22 +7253,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8438,22 +7286,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8480,22 +7319,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8522,22 +7352,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8564,22 +7385,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8606,22 +7418,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8648,22 +7451,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8688,24 +7482,15 @@
         <v>1764020.6006</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8730,24 +7515,15 @@
         <v>1764020.6006</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8774,22 +7550,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8816,22 +7583,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8858,22 +7616,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8900,22 +7649,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8942,22 +7682,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8984,22 +7715,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9026,22 +7748,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9066,24 +7779,15 @@
         <v>1868256.1412</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9108,24 +7812,15 @@
         <v>2057121.1412</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9150,24 +7845,15 @@
         <v>2015613.4622</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9192,24 +7878,15 @@
         <v>2015642.7789</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9234,26 +7911,15 @@
         <v>2015642.7789</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1.05421052631579</v>
-      </c>
-      <c r="N224" t="n">
-        <v>1.066225165562914</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9278,18 +7944,15 @@
         <v>2004029.0289</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9314,18 +7977,15 @@
         <v>2004029.0289</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9350,18 +8010,15 @@
         <v>2004029.0289</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9386,18 +8043,15 @@
         <v>2008293.563</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9422,18 +8076,15 @@
         <v>2003792.648</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9458,18 +8109,15 @@
         <v>2003792.648</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9494,18 +8142,15 @@
         <v>1985292.648</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9530,18 +8175,15 @@
         <v>1985292.648</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9566,18 +8208,15 @@
         <v>1985302.648</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9602,18 +8241,15 @@
         <v>1896584.7121</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9638,18 +8274,15 @@
         <v>1882584.7121</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9674,18 +8307,15 @@
         <v>1882584.7121</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9710,18 +8340,15 @@
         <v>1884806.7121</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9746,18 +8373,15 @@
         <v>1852137.5654</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9782,18 +8406,15 @@
         <v>2097766.3546</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9818,18 +8439,15 @@
         <v>2095783.1788</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9856,16 +8474,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9892,16 +8507,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9928,16 +8540,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9962,18 +8571,15 @@
         <v>2134007.1289</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9998,18 +8604,15 @@
         <v>2133957.1289</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10034,18 +8637,15 @@
         <v>2133969.1289</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10070,18 +8670,15 @@
         <v>2133969.1289</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10106,18 +8703,15 @@
         <v>2133969.1289</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10142,18 +8736,15 @@
         <v>2057658.5924</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10178,18 +8769,15 @@
         <v>2140536.5924</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10216,16 +8804,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10252,16 +8837,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10288,16 +8870,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10324,16 +8903,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10360,16 +8936,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10396,16 +8969,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10430,18 +9000,15 @@
         <v>2161380.8588</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10468,16 +9035,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>1</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10502,18 +9066,15 @@
         <v>2143280.8588</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10540,16 +9101,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10574,18 +9132,15 @@
         <v>2120720.3949</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10612,16 +9167,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10648,16 +9200,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10684,16 +9233,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10718,18 +9264,15 @@
         <v>2123892.5051</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10754,18 +9297,15 @@
         <v>2102305.0853</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10790,18 +9330,15 @@
         <v>2164593.8978</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10826,18 +9363,15 @@
         <v>2164593.8978</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10862,18 +9396,15 @@
         <v>2124505.8978</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10898,18 +9429,15 @@
         <v>2124505.8978</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10934,18 +9462,15 @@
         <v>2124505.8978</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10970,18 +9495,15 @@
         <v>2124505.8978</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11008,16 +9530,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11044,16 +9563,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11080,16 +9596,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11116,16 +9629,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11152,16 +9662,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11188,16 +9695,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11224,16 +9728,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11260,16 +9761,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11296,16 +9794,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11332,16 +9827,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11368,18 +9860,15 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest MITH.xlsx
+++ b/BackTest/2019-10-31 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2712458.490999999</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2752468.490999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2669264.026199999</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2669246.856399999</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2623310.464</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2631695.9705</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2612461.1682</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2612471.1682</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2252176.5007</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1993161.1578</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1993161.1578</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1993161.1578</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1993161.1578</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1930614.6072</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2406583.6456</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2041774.978</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2041774.978</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2041774.978</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2051828.4587</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2040566.4587</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2040690.9312</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2023219.6167</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2629326.9747</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2661561.9215</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2661561.9215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2661561.9215</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2606153.8251</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2516215.796999999</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2511811.7078</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3916,14 +3916,10 @@
         <v>2260203.055899999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
@@ -3953,19 +3949,11 @@
         <v>2259203.055899999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J108" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3994,19 +3982,15 @@
         <v>2259213.055899999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>15.1</v>
       </c>
       <c r="J109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>15.1</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4035,15 +4019,19 @@
         <v>2257402.297599999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>15.2</v>
       </c>
       <c r="J110" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4072,13 +4060,13 @@
         <v>2257402.297599999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>15.1</v>
       </c>
       <c r="J111" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4113,13 +4101,13 @@
         <v>2258402.297599999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>15.1</v>
       </c>
       <c r="J112" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4154,13 +4142,13 @@
         <v>2258402.297599999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>15.2</v>
       </c>
       <c r="J113" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4195,13 +4183,13 @@
         <v>2413902.297599999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>15.2</v>
       </c>
       <c r="J114" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4236,13 +4224,13 @@
         <v>2443902.297599999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>15.3</v>
       </c>
       <c r="J115" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4277,13 +4265,13 @@
         <v>2493902.297599999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>15.4</v>
       </c>
       <c r="J116" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4318,13 +4306,13 @@
         <v>2518002.297599999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>15.5</v>
       </c>
       <c r="J117" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4363,7 +4351,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4402,7 +4390,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4437,11 +4425,11 @@
         <v>2581659.297599999</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4480,7 +4468,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4519,7 +4507,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4558,7 +4546,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4597,7 +4585,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4636,7 +4624,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4671,19 +4659,19 @@
         <v>1794981.7988</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.047631578947368</v>
+        <v>1</v>
       </c>
       <c r="M126" t="inlineStr"/>
     </row>
@@ -4713,8 +4701,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4746,8 +4740,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4776,11 +4776,17 @@
         <v>1787691.8621</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4809,11 +4815,17 @@
         <v>1787691.8621</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4842,11 +4854,17 @@
         <v>1611664.8011</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4878,8 +4896,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4911,8 +4935,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4944,8 +4974,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4977,8 +5013,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5010,8 +5052,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5043,8 +5091,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5076,8 +5130,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5109,8 +5169,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5142,8 +5208,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5175,8 +5247,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5205,11 +5283,17 @@
         <v>1828506.8581</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5238,11 +5322,17 @@
         <v>1717055.0366</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5271,11 +5361,17 @@
         <v>1693055.0366</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5304,11 +5400,17 @@
         <v>1693055.0366</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5340,8 +5442,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5370,11 +5478,19 @@
         <v>1693055.0366</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J147" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +5519,19 @@
         <v>1676422.0366</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J148" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5436,11 +5560,19 @@
         <v>1696822.0366</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J149" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5469,11 +5601,19 @@
         <v>1732522.0366</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J150" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5502,11 +5642,19 @@
         <v>1982522.0366</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5535,11 +5683,19 @@
         <v>1982502.0366</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>16</v>
+      </c>
+      <c r="J152" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5568,11 +5724,19 @@
         <v>1982502.0366</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J153" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5601,11 +5765,19 @@
         <v>1982502.0366</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J154" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +5809,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5670,8 +5848,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5703,8 +5887,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5736,8 +5926,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5769,8 +5965,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5802,8 +6004,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5835,8 +6043,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5868,8 +6082,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5901,8 +6121,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5934,8 +6160,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5967,8 +6199,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6000,8 +6238,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6033,8 +6277,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6066,8 +6316,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6099,8 +6355,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6132,8 +6394,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6165,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6198,8 +6472,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6231,8 +6511,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6264,8 +6550,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6297,8 +6589,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6330,8 +6628,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6360,11 +6664,17 @@
         <v>1761875.5925</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6393,11 +6703,17 @@
         <v>1761875.5925</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6429,8 +6745,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6462,8 +6784,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6495,8 +6823,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6528,8 +6862,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6561,8 +6901,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6594,8 +6940,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6627,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6657,11 +7015,17 @@
         <v>1766272.8346</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6693,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6726,8 +7096,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6759,8 +7135,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6789,11 +7171,17 @@
         <v>1651821.8076</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6825,8 +7213,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6858,8 +7252,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6891,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6924,8 +7330,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6957,8 +7369,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6990,8 +7408,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7023,8 +7447,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7056,8 +7486,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7089,8 +7525,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7122,8 +7564,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7155,8 +7603,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7188,8 +7642,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7221,8 +7681,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7254,8 +7720,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7287,8 +7759,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7320,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7353,8 +7837,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7386,8 +7876,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7419,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7452,8 +7954,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7482,11 +7990,17 @@
         <v>1764020.6006</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7515,11 +8029,17 @@
         <v>1764020.6006</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7551,8 +8071,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7584,8 +8110,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7617,8 +8149,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7650,8 +8188,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7683,8 +8227,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7716,8 +8266,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7749,8 +8305,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7779,11 +8341,17 @@
         <v>1868256.1412</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7812,11 +8380,17 @@
         <v>2057121.1412</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +8419,17 @@
         <v>2015613.4622</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7878,11 +8458,17 @@
         <v>2015642.7789</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7911,11 +8497,17 @@
         <v>2015642.7789</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7944,11 +8536,17 @@
         <v>2004029.0289</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7977,11 +8575,17 @@
         <v>2004029.0289</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8010,11 +8614,17 @@
         <v>2004029.0289</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8043,11 +8653,17 @@
         <v>2008293.563</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8076,11 +8692,17 @@
         <v>2003792.648</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8109,11 +8731,17 @@
         <v>2003792.648</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8142,11 +8770,17 @@
         <v>1985292.648</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8175,11 +8809,17 @@
         <v>1985292.648</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8208,11 +8848,17 @@
         <v>1985302.648</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8241,11 +8887,17 @@
         <v>1896584.7121</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8274,11 +8926,17 @@
         <v>1882584.7121</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8307,11 +8965,17 @@
         <v>1882584.7121</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8340,11 +9004,17 @@
         <v>1884806.7121</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8373,11 +9043,17 @@
         <v>1852137.5654</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8406,11 +9082,17 @@
         <v>2097766.3546</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8439,11 +9121,17 @@
         <v>2095783.1788</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8475,8 +9163,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8508,8 +9202,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8541,8 +9241,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8571,11 +9277,17 @@
         <v>2134007.1289</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8604,11 +9316,17 @@
         <v>2133957.1289</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8637,11 +9355,17 @@
         <v>2133969.1289</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8670,11 +9394,17 @@
         <v>2133969.1289</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8703,11 +9433,17 @@
         <v>2133969.1289</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8736,11 +9472,17 @@
         <v>2057658.5924</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8769,11 +9511,17 @@
         <v>2140536.5924</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8805,8 +9553,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8838,8 +9592,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8871,8 +9631,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8904,8 +9670,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8937,8 +9709,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8970,8 +9748,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9000,11 +9784,17 @@
         <v>2161380.8588</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9036,8 +9826,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9066,11 +9862,17 @@
         <v>2143280.8588</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9102,8 +9904,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9132,11 +9940,17 @@
         <v>2120720.3949</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9168,8 +9982,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9201,8 +10021,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9234,8 +10060,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9264,11 +10096,17 @@
         <v>2123892.5051</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9297,11 +10135,17 @@
         <v>2102305.0853</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9330,11 +10174,17 @@
         <v>2164593.8978</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9363,11 +10213,17 @@
         <v>2164593.8978</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9396,11 +10252,17 @@
         <v>2124505.8978</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9429,11 +10291,17 @@
         <v>2124505.8978</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9462,11 +10330,17 @@
         <v>2124505.8978</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9495,11 +10369,17 @@
         <v>2124505.8978</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9531,8 +10411,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9564,8 +10450,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9597,8 +10489,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9630,8 +10528,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9663,8 +10567,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9696,8 +10606,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9729,8 +10645,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9762,8 +10684,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9795,8 +10723,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9828,8 +10762,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9861,14 +10801,20 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
       <c r="M283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest MITH.xlsx
+++ b/BackTest/2019-10-31 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2712458.490999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2612461.1682</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2612471.1682</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2252176.5007</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1993161.1578</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1993161.1578</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1993161.1578</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1993161.1578</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1930614.6072</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2406583.6456</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2041774.978</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2041774.978</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2041774.978</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2051828.4587</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2040566.4587</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2040690.9312</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2023219.6167</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2629541.6167</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2629326.9747</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2661561.9215</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2661561.9215</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2661561.9215</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -3817,11 +3817,17 @@
         <v>2260286.029599999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3856,17 @@
         <v>2260158.029599999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3895,17 @@
         <v>2260203.055899999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3934,17 @@
         <v>2260203.055899999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3973,17 @@
         <v>2259203.055899999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3987,10 +4017,12 @@
       <c r="I109" t="n">
         <v>15.1</v>
       </c>
-      <c r="J109" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4024,12 +4056,10 @@
       <c r="I110" t="n">
         <v>15.2</v>
       </c>
-      <c r="J110" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4065,12 +4095,10 @@
       <c r="I111" t="n">
         <v>15.1</v>
       </c>
-      <c r="J111" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4106,9 +4134,7 @@
       <c r="I112" t="n">
         <v>15.1</v>
       </c>
-      <c r="J112" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4147,9 +4173,7 @@
       <c r="I113" t="n">
         <v>15.2</v>
       </c>
-      <c r="J113" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,9 +4212,7 @@
       <c r="I114" t="n">
         <v>15.2</v>
       </c>
-      <c r="J114" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,9 +4251,7 @@
       <c r="I115" t="n">
         <v>15.3</v>
       </c>
-      <c r="J115" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4265,14 +4285,10 @@
         <v>2493902.297599999</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J116" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,14 +4322,10 @@
         <v>2518002.297599999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4350,9 +4362,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4389,9 +4399,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4428,9 +4436,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4467,9 +4473,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4506,9 +4510,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4545,9 +4547,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4584,9 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4623,9 +4621,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,9 +4658,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4701,9 +4695,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4740,9 +4732,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4779,9 +4769,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4818,9 +4806,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4857,9 +4843,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4896,9 +4880,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4935,9 +4917,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4974,9 +4954,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5013,9 +4991,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5052,9 +5028,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5091,9 +5065,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5130,9 +5102,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5169,9 +5139,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5208,9 +5176,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5247,9 +5213,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5286,9 +5250,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5325,9 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5364,9 +5324,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,20 +5358,16 @@
         <v>1693055.0366</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -5439,17 +5393,11 @@
         <v>1693055.0366</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5478,19 +5426,11 @@
         <v>1693055.0366</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J147" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5519,19 +5459,11 @@
         <v>1676422.0366</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J148" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5560,19 +5492,11 @@
         <v>1696822.0366</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J149" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5601,19 +5525,11 @@
         <v>1732522.0366</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J150" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5642,19 +5558,11 @@
         <v>1982522.0366</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J151" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5683,19 +5591,11 @@
         <v>1982502.0366</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>16</v>
-      </c>
-      <c r="J152" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5724,19 +5624,11 @@
         <v>1982502.0366</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J153" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5765,19 +5657,11 @@
         <v>1982502.0366</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J154" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5806,17 +5690,11 @@
         <v>1932512.0366</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5845,17 +5723,11 @@
         <v>1932512.0366</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5887,14 +5759,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5926,14 +5792,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5965,14 +5825,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6004,14 +5858,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6043,14 +5891,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6082,14 +5924,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6121,14 +5957,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6160,14 +5990,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6199,14 +6023,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6238,14 +6056,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6277,14 +6089,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6316,14 +6122,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6355,14 +6155,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6394,14 +6188,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6433,14 +6221,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6472,14 +6254,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6511,14 +6287,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6550,14 +6320,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6589,14 +6353,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6628,14 +6386,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6667,14 +6419,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6706,14 +6452,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6745,14 +6485,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6784,14 +6518,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6823,14 +6551,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6862,14 +6584,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6901,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6940,14 +6650,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6979,14 +6683,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7018,14 +6716,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +6749,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +6782,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7135,14 +6815,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7174,14 +6848,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7213,14 +6881,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7252,14 +6914,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7291,14 +6947,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7330,14 +6980,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7369,14 +7013,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7408,14 +7046,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7447,14 +7079,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7112,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7525,14 +7145,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7564,14 +7178,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7603,14 +7211,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7642,14 +7244,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7681,14 +7277,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7720,14 +7310,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7759,14 +7343,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7798,14 +7376,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7837,14 +7409,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7876,14 +7442,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7915,14 +7475,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7954,14 +7508,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7993,14 +7541,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8032,14 +7574,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8071,14 +7607,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8110,14 +7640,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8149,14 +7673,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8188,14 +7706,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8227,14 +7739,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8266,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8305,14 +7805,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8344,14 +7838,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8383,14 +7871,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +7904,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8461,14 +7937,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8500,14 +7970,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8536,17 +8000,11 @@
         <v>2004029.0289</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8578,14 +8036,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8617,14 +8069,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8656,14 +8102,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +8135,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8734,14 +8168,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8770,17 +8198,11 @@
         <v>1985292.648</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8812,14 +8234,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8848,17 +8264,11 @@
         <v>1985302.648</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8890,14 +8300,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8926,17 +8330,11 @@
         <v>1882584.7121</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8968,14 +8366,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9007,14 +8399,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9046,14 +8432,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9085,14 +8465,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9124,14 +8498,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9163,14 +8531,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9202,14 +8564,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9238,17 +8594,11 @@
         <v>2134007.1289</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9277,17 +8627,11 @@
         <v>2134007.1289</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9316,17 +8660,11 @@
         <v>2133957.1289</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9355,17 +8693,11 @@
         <v>2133969.1289</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9394,17 +8726,11 @@
         <v>2133969.1289</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9433,17 +8759,11 @@
         <v>2133969.1289</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9472,17 +8792,11 @@
         <v>2057658.5924</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9511,17 +8825,11 @@
         <v>2140536.5924</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9550,17 +8858,11 @@
         <v>2135527.7259</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9589,17 +8891,11 @@
         <v>2135527.7259</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9631,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9670,14 +8960,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9706,17 +8990,11 @@
         <v>2161380.8588</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9745,17 +9023,11 @@
         <v>2161380.8588</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9784,17 +9056,11 @@
         <v>2161380.8588</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9823,17 +9089,11 @@
         <v>2143280.8588</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9865,14 +9125,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9904,14 +9158,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9943,14 +9191,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9982,14 +9224,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10021,14 +9257,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10060,14 +9290,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10099,14 +9323,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10138,14 +9356,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10177,14 +9389,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10216,14 +9422,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10255,14 +9455,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10294,14 +9488,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10333,14 +9521,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10372,14 +9554,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10411,14 +9587,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10450,14 +9620,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10489,14 +9653,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10528,14 +9686,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10567,14 +9719,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10606,14 +9752,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10645,14 +9785,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10684,14 +9818,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10723,14 +9851,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10762,14 +9884,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10801,20 +9917,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
       <c r="M283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest MITH.xlsx
+++ b/BackTest/2019-10-31 BackTest MITH.xlsx
@@ -484,7 +484,7 @@
         <v>2752468.490999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2669264.026199999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2623310.464</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2631695.9705</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2612471.1682</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1993161.1578</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -3817,17 +3817,11 @@
         <v>2260286.029599999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3856,17 +3850,11 @@
         <v>2260158.029599999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3900,12 +3888,10 @@
       <c r="I106" t="n">
         <v>15.1</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3939,10 +3925,12 @@
       <c r="I107" t="n">
         <v>15.2</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -3978,10 +3966,12 @@
       <c r="I108" t="n">
         <v>15.2</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4017,12 +4007,10 @@
       <c r="I109" t="n">
         <v>15.1</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4056,10 +4044,12 @@
       <c r="I110" t="n">
         <v>15.2</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4095,10 +4085,12 @@
       <c r="I111" t="n">
         <v>15.1</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4134,7 +4126,9 @@
       <c r="I112" t="n">
         <v>15.1</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,7 +4167,9 @@
       <c r="I113" t="n">
         <v>15.2</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,7 +4208,9 @@
       <c r="I114" t="n">
         <v>15.2</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,7 +4249,9 @@
       <c r="I115" t="n">
         <v>15.3</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4285,10 +4285,14 @@
         <v>2493902.297599999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J116" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4322,10 +4326,14 @@
         <v>2518002.297599999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4359,10 +4367,14 @@
         <v>2488002.297599999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J118" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,10 +4408,14 @@
         <v>2488002.297599999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J119" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,10 +4449,14 @@
         <v>2581659.297599999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J120" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4470,10 +4490,14 @@
         <v>2581659.297599999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J121" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4507,10 +4531,14 @@
         <v>2581659.297599999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J122" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,10 +4572,14 @@
         <v>2663361.512699999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J123" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4581,10 +4613,14 @@
         <v>1709788.947699999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J124" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,10 +4654,14 @@
         <v>1794981.7988</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J125" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,10 +4695,14 @@
         <v>1794981.7988</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>16</v>
+      </c>
+      <c r="J126" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4692,10 +4736,14 @@
         <v>1794981.7988</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>16</v>
+      </c>
+      <c r="J127" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4729,10 +4777,14 @@
         <v>1787691.8621</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>16</v>
+      </c>
+      <c r="J128" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4766,10 +4818,14 @@
         <v>1787691.8621</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J129" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4803,10 +4859,14 @@
         <v>1787691.8621</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J130" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,10 +4900,14 @@
         <v>1611664.8011</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J131" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4877,10 +4941,14 @@
         <v>1611664.8011</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J132" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4914,10 +4982,14 @@
         <v>1611664.8011</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J133" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4951,10 +5023,14 @@
         <v>1626910.8556</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J134" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4988,10 +5064,14 @@
         <v>1623739.1366</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J135" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5025,10 +5105,14 @@
         <v>1623739.1366</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J136" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5062,10 +5146,14 @@
         <v>1663839.1366</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J137" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5099,10 +5187,14 @@
         <v>1663839.1366</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J138" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5136,10 +5228,14 @@
         <v>1720271.1366</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J139" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5173,10 +5269,14 @@
         <v>1720271.1366</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J140" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5210,10 +5310,14 @@
         <v>1820506.8581</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J141" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5247,10 +5351,14 @@
         <v>1828506.8581</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J142" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5284,10 +5392,14 @@
         <v>1717055.0366</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>16</v>
+      </c>
+      <c r="J143" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5321,10 +5433,14 @@
         <v>1693055.0366</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J144" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5358,16 +5474,22 @@
         <v>1693055.0366</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J145" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
       <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -5393,11 +5515,19 @@
         <v>1693055.0366</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J146" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5426,11 +5556,19 @@
         <v>1693055.0366</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J147" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5459,11 +5597,19 @@
         <v>1676422.0366</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J148" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +5638,19 @@
         <v>1696822.0366</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J149" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5525,11 +5679,19 @@
         <v>1732522.0366</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J150" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5558,11 +5720,19 @@
         <v>1982522.0366</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5591,11 +5761,17 @@
         <v>1982502.0366</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5624,11 +5800,19 @@
         <v>1982502.0366</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J153" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5657,11 +5841,19 @@
         <v>1982502.0366</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J154" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5690,11 +5882,19 @@
         <v>1932512.0366</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J155" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5723,11 +5923,19 @@
         <v>1932512.0366</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J156" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5756,11 +5964,19 @@
         <v>1932512.0366</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J157" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5789,11 +6005,19 @@
         <v>1938654.265799999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J158" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5822,11 +6046,19 @@
         <v>1723554.378599999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J159" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5855,11 +6087,19 @@
         <v>1723554.378599999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J160" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5888,11 +6128,19 @@
         <v>1790651.3536</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J161" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +6169,19 @@
         <v>1783176.5579</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J162" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5954,11 +6210,19 @@
         <v>1784176.5579</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J163" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5987,11 +6251,19 @@
         <v>1784176.5579</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J164" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6020,11 +6292,19 @@
         <v>1804176.5579</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J165" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6053,11 +6333,19 @@
         <v>1804176.5579</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J166" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6086,11 +6374,19 @@
         <v>1804176.5579</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J167" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6119,11 +6415,19 @@
         <v>1804176.5579</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J168" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6152,11 +6456,19 @@
         <v>1812196.5579</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J169" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6185,11 +6497,19 @@
         <v>1799639.7245</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J170" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6218,11 +6538,19 @@
         <v>1829639.7245</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6251,11 +6579,19 @@
         <v>1829639.7245</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J172" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6287,8 +6623,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6320,8 +6662,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6353,8 +6701,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6386,8 +6740,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6419,8 +6779,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6452,8 +6818,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6482,11 +6854,19 @@
         <v>1759535.5925</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J179" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6515,11 +6895,19 @@
         <v>1756302.8346</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J180" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6548,11 +6936,19 @@
         <v>1756302.8346</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J181" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6581,11 +6977,19 @@
         <v>1758272.8346</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J182" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6614,11 +7018,19 @@
         <v>1766272.8346</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J183" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +7059,19 @@
         <v>1766272.8346</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J184" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6680,11 +7100,19 @@
         <v>1766272.8346</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J185" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6713,11 +7141,19 @@
         <v>1766272.8346</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J186" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6746,11 +7182,19 @@
         <v>1766272.8346</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J187" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6779,11 +7223,19 @@
         <v>1766272.8346</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J188" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6812,11 +7264,19 @@
         <v>1766272.8346</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J189" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6845,11 +7305,19 @@
         <v>1651821.8076</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J190" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6878,11 +7346,19 @@
         <v>1651821.8076</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J191" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6911,11 +7387,19 @@
         <v>1646332.5045</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J192" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6944,11 +7428,19 @@
         <v>1702914.0828</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J193" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6977,11 +7469,19 @@
         <v>1698709.5102</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J194" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7010,11 +7510,19 @@
         <v>1678709.5102</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J195" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7043,11 +7551,19 @@
         <v>1678719.5102</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J196" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7076,11 +7592,19 @@
         <v>1678719.5102</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J197" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7109,11 +7633,19 @@
         <v>1678719.5102</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J198" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7142,11 +7674,19 @@
         <v>1672119.5102</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J199" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7175,11 +7715,19 @@
         <v>1672119.5102</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J200" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7208,11 +7756,19 @@
         <v>1684719.5102</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J201" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +7797,19 @@
         <v>1684719.5102</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J202" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7274,11 +7838,19 @@
         <v>1704719.5102</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J203" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7307,11 +7879,19 @@
         <v>1700405.868</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J204" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7340,11 +7920,19 @@
         <v>1700405.868</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J205" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7373,11 +7961,19 @@
         <v>1700405.868</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J206" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7406,11 +8002,19 @@
         <v>1700405.868</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J207" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7439,11 +8043,19 @@
         <v>1744805.868</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J208" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7472,11 +8084,19 @@
         <v>1915005.868</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J209" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7505,11 +8125,19 @@
         <v>1915005.868</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J210" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7538,11 +8166,19 @@
         <v>1764020.6006</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J211" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7571,11 +8207,19 @@
         <v>1764020.6006</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J212" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7604,11 +8248,19 @@
         <v>1783620.6006</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J213" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7637,11 +8289,19 @@
         <v>1746720.6006</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J214" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7670,11 +8330,19 @@
         <v>1796620.6006</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J215" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7703,11 +8371,19 @@
         <v>1796620.6006</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J216" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7736,11 +8412,19 @@
         <v>1760868.1033</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J217" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7769,11 +8453,19 @@
         <v>1795856.1412</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J218" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7802,11 +8494,19 @@
         <v>1868256.1412</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J219" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7835,11 +8535,19 @@
         <v>1868256.1412</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J220" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7868,11 +8576,19 @@
         <v>2057121.1412</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J221" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7901,13 +8617,19 @@
         <v>2015613.4622</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L222" t="n">
-        <v>1</v>
+        <v>1.047980132450331</v>
       </c>
       <c r="M222" t="inlineStr"/>
     </row>
@@ -7934,7 +8656,7 @@
         <v>2015642.7789</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7967,7 +8689,7 @@
         <v>2015642.7789</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8033,7 +8755,7 @@
         <v>2004029.0289</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8066,7 +8788,7 @@
         <v>2004029.0289</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8099,7 +8821,7 @@
         <v>2008293.563</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8132,7 +8854,7 @@
         <v>2003792.648</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8165,7 +8887,7 @@
         <v>2003792.648</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8231,7 +8953,7 @@
         <v>1985292.648</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8297,7 +9019,7 @@
         <v>1896584.7121</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8363,7 +9085,7 @@
         <v>1882584.7121</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8396,7 +9118,7 @@
         <v>1884806.7121</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8429,7 +9151,7 @@
         <v>1852137.5654</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8462,7 +9184,7 @@
         <v>2097766.3546</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8825,7 +9547,7 @@
         <v>2140536.5924</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8924,7 +9646,7 @@
         <v>2135527.7259</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8957,7 +9679,7 @@
         <v>2135527.7259</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9122,7 +9844,7 @@
         <v>2143280.8588</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9155,7 +9877,7 @@
         <v>2143280.8588</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9188,7 +9910,7 @@
         <v>2120720.3949</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9221,7 +9943,7 @@
         <v>2120720.3949</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9254,7 +9976,7 @@
         <v>2120720.3949</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9320,7 +10042,7 @@
         <v>2123892.5051</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9353,7 +10075,7 @@
         <v>2102305.0853</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9386,7 +10108,7 @@
         <v>2164593.8978</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9419,7 +10141,7 @@
         <v>2164593.8978</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9452,7 +10174,7 @@
         <v>2124505.8978</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9485,7 +10207,7 @@
         <v>2124505.8978</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest MITH.xlsx
+++ b/BackTest/2019-10-31 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:L283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>30210</v>
       </c>
       <c r="G2" t="n">
-        <v>2712458.490999999</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>40010</v>
       </c>
       <c r="G3" t="n">
-        <v>2752468.490999999</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2251.128</v>
       </c>
       <c r="G4" t="n">
-        <v>2750217.362999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>2750227.362999999</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>77101.53810000001</v>
       </c>
       <c r="G6" t="n">
-        <v>2750227.362999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>49596.8612</v>
       </c>
       <c r="G7" t="n">
-        <v>2750227.362999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>80963.3368</v>
       </c>
       <c r="G8" t="n">
-        <v>2669264.026199999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>17.1698</v>
       </c>
       <c r="G9" t="n">
-        <v>2669246.856399999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>45936.3924</v>
       </c>
       <c r="G10" t="n">
-        <v>2623310.464</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>8385.5065</v>
       </c>
       <c r="G11" t="n">
-        <v>2631695.9705</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>19234.8023</v>
       </c>
       <c r="G12" t="n">
-        <v>2612461.1682</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>2612471.1682</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>360294.6675</v>
       </c>
       <c r="G14" t="n">
-        <v>2252176.5007</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>259015.3429</v>
       </c>
       <c r="G15" t="n">
-        <v>1993161.1578</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>354314.9966</v>
       </c>
       <c r="G16" t="n">
-        <v>1993161.1578</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>309945.7305</v>
       </c>
       <c r="G17" t="n">
-        <v>1993161.1578</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>149633.0276</v>
       </c>
       <c r="G18" t="n">
-        <v>1993161.1578</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>62546.5506</v>
       </c>
       <c r="G19" t="n">
-        <v>1930614.6072</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>475969.0384</v>
       </c>
       <c r="G20" t="n">
-        <v>2406583.6456</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>364808.6676</v>
       </c>
       <c r="G21" t="n">
-        <v>2041774.978</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>332705.206</v>
       </c>
       <c r="G22" t="n">
-        <v>2041774.978</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>9943</v>
       </c>
       <c r="G23" t="n">
-        <v>2041774.978</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>10053.4807</v>
       </c>
       <c r="G24" t="n">
-        <v>2051828.4587</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>11262</v>
       </c>
       <c r="G25" t="n">
-        <v>2040566.4587</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>124.4725</v>
       </c>
       <c r="G26" t="n">
-        <v>2040690.9312</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>17471.3145</v>
       </c>
       <c r="G27" t="n">
-        <v>2023219.6167</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>59836</v>
       </c>
       <c r="G28" t="n">
-        <v>2023219.6167</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>2023230.6167</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>606311</v>
       </c>
       <c r="G30" t="n">
-        <v>2629541.6167</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>23030.1592</v>
       </c>
       <c r="G31" t="n">
-        <v>2629541.6167</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>23</v>
       </c>
       <c r="G32" t="n">
-        <v>2629541.6167</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>28600</v>
       </c>
       <c r="G33" t="n">
-        <v>2629541.6167</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>27</v>
       </c>
       <c r="G34" t="n">
-        <v>2629541.6167</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>6162</v>
       </c>
       <c r="G35" t="n">
-        <v>2629541.6167</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>22.973</v>
       </c>
       <c r="G36" t="n">
-        <v>2629541.6167</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>214.642</v>
       </c>
       <c r="G37" t="n">
-        <v>2629326.9747</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>32234.9468</v>
       </c>
       <c r="G38" t="n">
-        <v>2661561.9215</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>30010</v>
       </c>
       <c r="G39" t="n">
-        <v>2661561.9215</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>88992.6433</v>
       </c>
       <c r="G40" t="n">
-        <v>2661561.9215</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>19500</v>
       </c>
       <c r="G41" t="n">
-        <v>2661561.9215</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>330674.5283</v>
       </c>
       <c r="G42" t="n">
-        <v>2661561.9215</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>2661561.9215</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1398.6624</v>
       </c>
       <c r="G44" t="n">
-        <v>2661561.9215</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>19935.0022</v>
       </c>
       <c r="G45" t="n">
-        <v>2641626.9193</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>12876.6666</v>
       </c>
       <c r="G46" t="n">
-        <v>2641626.9193</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>35473.0942</v>
       </c>
       <c r="G47" t="n">
-        <v>2606153.8251</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>17716.3775</v>
       </c>
       <c r="G48" t="n">
-        <v>2606153.8251</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>8631.6217</v>
       </c>
       <c r="G49" t="n">
-        <v>2606153.8251</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>24</v>
       </c>
       <c r="G50" t="n">
-        <v>2606177.8251</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>22342.2962</v>
       </c>
       <c r="G51" t="n">
-        <v>2606177.8251</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>17920.7166</v>
       </c>
       <c r="G52" t="n">
-        <v>2606177.8251</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>8690.522199999999</v>
       </c>
       <c r="G53" t="n">
-        <v>2597487.3029</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>22</v>
       </c>
       <c r="G54" t="n">
-        <v>2597509.3029</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>4785.746</v>
       </c>
       <c r="G55" t="n">
-        <v>2597509.3029</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>11283.4725</v>
       </c>
       <c r="G56" t="n">
-        <v>2597509.3029</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>8613.205099999999</v>
       </c>
       <c r="G57" t="n">
-        <v>2597509.3029</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>2597519.3029</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>55700.1748</v>
       </c>
       <c r="G59" t="n">
-        <v>2541819.128099999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>8602.6721</v>
       </c>
       <c r="G60" t="n">
-        <v>2550421.800199999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>5793.9968</v>
       </c>
       <c r="G61" t="n">
-        <v>2556215.796999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>40000</v>
       </c>
       <c r="G62" t="n">
-        <v>2516215.796999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>2516225.796999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3450.0892</v>
       </c>
       <c r="G64" t="n">
-        <v>2512775.7078</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>6378.2051</v>
       </c>
       <c r="G65" t="n">
-        <v>2512775.7078</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3360.7057</v>
       </c>
       <c r="G66" t="n">
-        <v>2512775.7078</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>3017.4994</v>
       </c>
       <c r="G67" t="n">
-        <v>2512775.7078</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>6982.5006</v>
       </c>
       <c r="G68" t="n">
-        <v>2512775.7078</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>29200</v>
       </c>
       <c r="G69" t="n">
-        <v>2512775.7078</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>36</v>
       </c>
       <c r="G70" t="n">
-        <v>2512811.7078</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1000</v>
       </c>
       <c r="G71" t="n">
-        <v>2511811.7078</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>12820.5128</v>
       </c>
       <c r="G72" t="n">
-        <v>2511811.7078</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>5641.1863</v>
       </c>
       <c r="G73" t="n">
-        <v>2511811.7078</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>21897.136</v>
       </c>
       <c r="G74" t="n">
-        <v>2511811.7078</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>4645.587</v>
       </c>
       <c r="G75" t="n">
-        <v>2507166.1208</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>3071.476</v>
       </c>
       <c r="G76" t="n">
-        <v>2507166.1208</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2264.817</v>
       </c>
       <c r="G77" t="n">
-        <v>2509430.937799999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>738.7746</v>
       </c>
       <c r="G78" t="n">
-        <v>2509430.937799999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>54924.7622</v>
       </c>
       <c r="G79" t="n">
-        <v>2454506.1756</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>31130.739</v>
       </c>
       <c r="G80" t="n">
-        <v>2454506.1756</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>7274.502</v>
       </c>
       <c r="G81" t="n">
-        <v>2454506.1756</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>2454516.1756</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1623.2051</v>
       </c>
       <c r="G83" t="n">
-        <v>2454516.1756</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>3000</v>
       </c>
       <c r="G84" t="n">
-        <v>2454516.1756</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>40263.0128</v>
       </c>
       <c r="G85" t="n">
-        <v>2414253.1628</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>26600</v>
       </c>
       <c r="G86" t="n">
-        <v>2414253.1628</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>55433.074</v>
       </c>
       <c r="G87" t="n">
-        <v>2358820.0888</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>73811.22870000001</v>
       </c>
       <c r="G88" t="n">
-        <v>2358820.0888</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>4711.7168</v>
       </c>
       <c r="G89" t="n">
-        <v>2354108.372</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>65922.1489</v>
       </c>
       <c r="G90" t="n">
-        <v>2354108.372</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>65330.3243</v>
       </c>
       <c r="G91" t="n">
-        <v>2419438.696299999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>0.0003</v>
       </c>
       <c r="G92" t="n">
-        <v>2419438.696299999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>45147.0402</v>
       </c>
       <c r="G93" t="n">
-        <v>2374291.656099999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>5002.9293</v>
       </c>
       <c r="G94" t="n">
-        <v>2374291.656099999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>26569.5347</v>
       </c>
       <c r="G95" t="n">
-        <v>2374291.656099999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>157592.0125</v>
       </c>
       <c r="G96" t="n">
-        <v>2216699.643599999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>2216699.643599999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>78313.3931</v>
       </c>
       <c r="G98" t="n">
-        <v>2216699.643599999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>7430.8411</v>
       </c>
       <c r="G99" t="n">
-        <v>2209268.802499999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>49900</v>
       </c>
       <c r="G100" t="n">
-        <v>2259168.802499999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>30000</v>
       </c>
       <c r="G101" t="n">
-        <v>2259168.802499999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>68400</v>
       </c>
       <c r="G102" t="n">
-        <v>2259168.802499999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>3000</v>
       </c>
       <c r="G103" t="n">
-        <v>2256168.802499999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>4117.2271</v>
       </c>
       <c r="G104" t="n">
-        <v>2260286.029599999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>128</v>
       </c>
       <c r="G105" t="n">
-        <v>2260158.029599999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,22 +3563,15 @@
         <v>45.0263</v>
       </c>
       <c r="G106" t="n">
-        <v>2260203.055899999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3917,391 +3593,317 @@
         <v>99.1447</v>
       </c>
       <c r="G107" t="n">
-        <v>2260203.055899999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
         <v>15.2</v>
       </c>
-      <c r="J107" t="n">
+      <c r="C109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
         <v>15.1</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="C110" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1810.7583</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>91248.61840000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>342.7924</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J113" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>155500</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="I114" t="n">
         <v>15.1</v>
       </c>
-      <c r="C108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G108" t="n">
-        <v>2259203.055899999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F109" t="n">
-        <v>10</v>
-      </c>
-      <c r="G109" t="n">
-        <v>2259213.055899999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1810.7583</v>
-      </c>
-      <c r="G110" t="n">
-        <v>2257402.297599999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="I115" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="I116" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J116" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>91248.61840000001</v>
-      </c>
-      <c r="G111" t="n">
-        <v>2257402.297599999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G112" t="n">
-        <v>2258402.297599999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>342.7924</v>
-      </c>
-      <c r="G113" t="n">
-        <v>2258402.297599999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J113" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>155500</v>
-      </c>
-      <c r="G114" t="n">
-        <v>2413902.297599999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J114" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D115" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E115" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G115" t="n">
-        <v>2443902.297599999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C116" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F116" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G116" t="n">
-        <v>2493902.297599999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J116" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4323,26 +3925,21 @@
         <v>24100</v>
       </c>
       <c r="G117" t="n">
-        <v>2518002.297599999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4364,26 +3961,15 @@
         <v>30000</v>
       </c>
       <c r="G118" t="n">
-        <v>2488002.297599999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J118" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4405,26 +3991,15 @@
         <v>189240.8333</v>
       </c>
       <c r="G119" t="n">
-        <v>2488002.297599999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J119" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4446,26 +4021,15 @@
         <v>93657</v>
       </c>
       <c r="G120" t="n">
-        <v>2581659.297599999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J120" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4487,26 +4051,15 @@
         <v>182279.8725</v>
       </c>
       <c r="G121" t="n">
-        <v>2581659.297599999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J121" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4528,26 +4081,15 @@
         <v>145.4034</v>
       </c>
       <c r="G122" t="n">
-        <v>2581659.297599999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J122" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4569,26 +4111,15 @@
         <v>81702.2151</v>
       </c>
       <c r="G123" t="n">
-        <v>2663361.512699999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J123" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4610,26 +4141,15 @@
         <v>953572.5649999999</v>
       </c>
       <c r="G124" t="n">
-        <v>1709788.947699999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J124" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4651,26 +4171,15 @@
         <v>85192.8511</v>
       </c>
       <c r="G125" t="n">
-        <v>1794981.7988</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J125" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4692,26 +4201,15 @@
         <v>189735.487</v>
       </c>
       <c r="G126" t="n">
-        <v>1794981.7988</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>16</v>
-      </c>
-      <c r="J126" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4733,26 +4231,15 @@
         <v>11</v>
       </c>
       <c r="G127" t="n">
-        <v>1794981.7988</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>16</v>
-      </c>
-      <c r="J127" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4774,26 +4261,15 @@
         <v>7289.9367</v>
       </c>
       <c r="G128" t="n">
-        <v>1787691.8621</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>16</v>
-      </c>
-      <c r="J128" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4815,26 +4291,15 @@
         <v>44720.6329</v>
       </c>
       <c r="G129" t="n">
-        <v>1787691.8621</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J129" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4856,26 +4321,15 @@
         <v>92600</v>
       </c>
       <c r="G130" t="n">
-        <v>1787691.8621</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J130" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4897,26 +4351,15 @@
         <v>176027.061</v>
       </c>
       <c r="G131" t="n">
-        <v>1611664.8011</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J131" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4938,26 +4381,15 @@
         <v>117808.6714</v>
       </c>
       <c r="G132" t="n">
-        <v>1611664.8011</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J132" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4979,26 +4411,15 @@
         <v>88578.3861</v>
       </c>
       <c r="G133" t="n">
-        <v>1611664.8011</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J133" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5020,26 +4441,15 @@
         <v>15246.0545</v>
       </c>
       <c r="G134" t="n">
-        <v>1626910.8556</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J134" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5061,26 +4471,15 @@
         <v>3171.719</v>
       </c>
       <c r="G135" t="n">
-        <v>1623739.1366</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J135" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5102,26 +4501,15 @@
         <v>16311.7529</v>
       </c>
       <c r="G136" t="n">
-        <v>1623739.1366</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J136" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5143,26 +4531,15 @@
         <v>40100</v>
       </c>
       <c r="G137" t="n">
-        <v>1663839.1366</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J137" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5184,26 +4561,15 @@
         <v>50200</v>
       </c>
       <c r="G138" t="n">
-        <v>1663839.1366</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J138" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5225,26 +4591,15 @@
         <v>56432</v>
       </c>
       <c r="G139" t="n">
-        <v>1720271.1366</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J139" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5266,26 +4621,15 @@
         <v>17594.5509</v>
       </c>
       <c r="G140" t="n">
-        <v>1720271.1366</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J140" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5307,26 +4651,15 @@
         <v>100235.7215</v>
       </c>
       <c r="G141" t="n">
-        <v>1820506.8581</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J141" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5348,26 +4681,15 @@
         <v>8000</v>
       </c>
       <c r="G142" t="n">
-        <v>1828506.8581</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J142" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5389,26 +4711,15 @@
         <v>111451.8215</v>
       </c>
       <c r="G143" t="n">
-        <v>1717055.0366</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>16</v>
-      </c>
-      <c r="J143" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5430,26 +4741,15 @@
         <v>24000</v>
       </c>
       <c r="G144" t="n">
-        <v>1693055.0366</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J144" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5471,26 +4771,15 @@
         <v>182766.2658</v>
       </c>
       <c r="G145" t="n">
-        <v>1693055.0366</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J145" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5512,26 +4801,15 @@
         <v>37574.2294</v>
       </c>
       <c r="G146" t="n">
-        <v>1693055.0366</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J146" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5553,26 +4831,15 @@
         <v>19700</v>
       </c>
       <c r="G147" t="n">
-        <v>1693055.0366</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J147" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5594,26 +4861,15 @@
         <v>16633</v>
       </c>
       <c r="G148" t="n">
-        <v>1676422.0366</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J148" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5635,26 +4891,15 @@
         <v>20400</v>
       </c>
       <c r="G149" t="n">
-        <v>1696822.0366</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J149" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5676,26 +4921,15 @@
         <v>35700</v>
       </c>
       <c r="G150" t="n">
-        <v>1732522.0366</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J150" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5717,26 +4951,15 @@
         <v>250000</v>
       </c>
       <c r="G151" t="n">
-        <v>1982522.0366</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J151" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5758,24 +4981,15 @@
         <v>20</v>
       </c>
       <c r="G152" t="n">
-        <v>1982502.0366</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5797,26 +5011,15 @@
         <v>64814.3627</v>
       </c>
       <c r="G153" t="n">
-        <v>1982502.0366</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J153" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5838,26 +5041,15 @@
         <v>22810.0002</v>
       </c>
       <c r="G154" t="n">
-        <v>1982502.0366</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J154" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5879,26 +5071,15 @@
         <v>49990</v>
       </c>
       <c r="G155" t="n">
-        <v>1932512.0366</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J155" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5920,26 +5101,15 @@
         <v>1106.4044</v>
       </c>
       <c r="G156" t="n">
-        <v>1932512.0366</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J156" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5961,26 +5131,15 @@
         <v>42004.3625</v>
       </c>
       <c r="G157" t="n">
-        <v>1932512.0366</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J157" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6002,26 +5161,15 @@
         <v>6142.2292</v>
       </c>
       <c r="G158" t="n">
-        <v>1938654.265799999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J158" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6043,26 +5191,15 @@
         <v>215099.8872</v>
       </c>
       <c r="G159" t="n">
-        <v>1723554.378599999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J159" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6084,26 +5221,15 @@
         <v>4598.7513</v>
       </c>
       <c r="G160" t="n">
-        <v>1723554.378599999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J160" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6125,26 +5251,15 @@
         <v>67096.97500000001</v>
       </c>
       <c r="G161" t="n">
-        <v>1790651.3536</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J161" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6166,26 +5281,15 @@
         <v>7474.7957</v>
       </c>
       <c r="G162" t="n">
-        <v>1783176.5579</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J162" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6207,26 +5311,15 @@
         <v>1000</v>
       </c>
       <c r="G163" t="n">
-        <v>1784176.5579</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J163" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6248,26 +5341,15 @@
         <v>101040.1923</v>
       </c>
       <c r="G164" t="n">
-        <v>1784176.5579</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J164" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6289,26 +5371,15 @@
         <v>20000</v>
       </c>
       <c r="G165" t="n">
-        <v>1804176.5579</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J165" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6330,26 +5401,15 @@
         <v>92401</v>
       </c>
       <c r="G166" t="n">
-        <v>1804176.5579</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J166" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6371,26 +5431,15 @@
         <v>66000</v>
       </c>
       <c r="G167" t="n">
-        <v>1804176.5579</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J167" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6412,26 +5461,15 @@
         <v>66000</v>
       </c>
       <c r="G168" t="n">
-        <v>1804176.5579</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J168" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6453,26 +5491,15 @@
         <v>8020</v>
       </c>
       <c r="G169" t="n">
-        <v>1812196.5579</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J169" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6494,26 +5521,15 @@
         <v>12556.8334</v>
       </c>
       <c r="G170" t="n">
-        <v>1799639.7245</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J170" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6535,26 +5551,15 @@
         <v>30000</v>
       </c>
       <c r="G171" t="n">
-        <v>1829639.7245</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J171" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6576,26 +5581,15 @@
         <v>44947</v>
       </c>
       <c r="G172" t="n">
-        <v>1829639.7245</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J172" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6617,24 +5611,15 @@
         <v>2634.2937</v>
       </c>
       <c r="G173" t="n">
-        <v>1829639.7245</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6656,24 +5641,15 @@
         <v>23600</v>
       </c>
       <c r="G174" t="n">
-        <v>1853239.7245</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6695,24 +5671,15 @@
         <v>416.0606</v>
       </c>
       <c r="G175" t="n">
-        <v>1852823.6639</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6734,24 +5701,15 @@
         <v>100782.0714</v>
       </c>
       <c r="G176" t="n">
-        <v>1752041.5925</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6773,24 +5731,15 @@
         <v>9834</v>
       </c>
       <c r="G177" t="n">
-        <v>1761875.5925</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6812,24 +5761,15 @@
         <v>10016</v>
       </c>
       <c r="G178" t="n">
-        <v>1761875.5925</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6851,26 +5791,15 @@
         <v>2340</v>
       </c>
       <c r="G179" t="n">
-        <v>1759535.5925</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J179" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6892,26 +5821,15 @@
         <v>3232.7579</v>
       </c>
       <c r="G180" t="n">
-        <v>1756302.8346</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J180" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6933,26 +5851,15 @@
         <v>3232.758</v>
       </c>
       <c r="G181" t="n">
-        <v>1756302.8346</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J181" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6974,26 +5881,15 @@
         <v>1970</v>
       </c>
       <c r="G182" t="n">
-        <v>1758272.8346</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J182" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7015,26 +5911,15 @@
         <v>8000</v>
       </c>
       <c r="G183" t="n">
-        <v>1766272.8346</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J183" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7056,26 +5941,15 @@
         <v>25701</v>
       </c>
       <c r="G184" t="n">
-        <v>1766272.8346</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J184" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7097,26 +5971,15 @@
         <v>7000</v>
       </c>
       <c r="G185" t="n">
-        <v>1766272.8346</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J185" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7138,26 +6001,15 @@
         <v>5436</v>
       </c>
       <c r="G186" t="n">
-        <v>1766272.8346</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J186" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7179,26 +6031,15 @@
         <v>24000</v>
       </c>
       <c r="G187" t="n">
-        <v>1766272.8346</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J187" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7220,26 +6061,15 @@
         <v>15619</v>
       </c>
       <c r="G188" t="n">
-        <v>1766272.8346</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J188" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7261,26 +6091,15 @@
         <v>6680.0632</v>
       </c>
       <c r="G189" t="n">
-        <v>1766272.8346</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J189" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7302,26 +6121,15 @@
         <v>114451.027</v>
       </c>
       <c r="G190" t="n">
-        <v>1651821.8076</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J190" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7343,26 +6151,15 @@
         <v>12.0987</v>
       </c>
       <c r="G191" t="n">
-        <v>1651821.8076</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J191" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7384,26 +6181,15 @@
         <v>5489.3031</v>
       </c>
       <c r="G192" t="n">
-        <v>1646332.5045</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J192" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7425,26 +6211,15 @@
         <v>56581.5783</v>
       </c>
       <c r="G193" t="n">
-        <v>1702914.0828</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J193" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7466,26 +6241,15 @@
         <v>4204.5726</v>
       </c>
       <c r="G194" t="n">
-        <v>1698709.5102</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J194" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7507,26 +6271,15 @@
         <v>20000</v>
       </c>
       <c r="G195" t="n">
-        <v>1678709.5102</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J195" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7548,26 +6301,15 @@
         <v>10</v>
       </c>
       <c r="G196" t="n">
-        <v>1678719.5102</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J196" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7589,26 +6331,15 @@
         <v>9100</v>
       </c>
       <c r="G197" t="n">
-        <v>1678719.5102</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J197" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7630,26 +6361,15 @@
         <v>38461.5384</v>
       </c>
       <c r="G198" t="n">
-        <v>1678719.5102</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J198" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7671,26 +6391,15 @@
         <v>6600</v>
       </c>
       <c r="G199" t="n">
-        <v>1672119.5102</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J199" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7712,26 +6421,15 @@
         <v>6465.5158</v>
       </c>
       <c r="G200" t="n">
-        <v>1672119.5102</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J200" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7753,26 +6451,15 @@
         <v>12600</v>
       </c>
       <c r="G201" t="n">
-        <v>1684719.5102</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J201" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7794,26 +6481,15 @@
         <v>1763.2692</v>
       </c>
       <c r="G202" t="n">
-        <v>1684719.5102</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J202" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7835,26 +6511,15 @@
         <v>20000</v>
       </c>
       <c r="G203" t="n">
-        <v>1704719.5102</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J203" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7876,26 +6541,15 @@
         <v>4313.6422</v>
       </c>
       <c r="G204" t="n">
-        <v>1700405.868</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J204" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7917,26 +6571,15 @@
         <v>990</v>
       </c>
       <c r="G205" t="n">
-        <v>1700405.868</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J205" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7958,26 +6601,15 @@
         <v>163012.564</v>
       </c>
       <c r="G206" t="n">
-        <v>1700405.868</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J206" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7999,26 +6631,15 @@
         <v>161700</v>
       </c>
       <c r="G207" t="n">
-        <v>1700405.868</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J207" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8040,26 +6661,15 @@
         <v>44400</v>
       </c>
       <c r="G208" t="n">
-        <v>1744805.868</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J208" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8081,26 +6691,15 @@
         <v>170200</v>
       </c>
       <c r="G209" t="n">
-        <v>1915005.868</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J209" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8122,26 +6721,15 @@
         <v>9100</v>
       </c>
       <c r="G210" t="n">
-        <v>1915005.868</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J210" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8163,26 +6751,15 @@
         <v>150985.2674</v>
       </c>
       <c r="G211" t="n">
-        <v>1764020.6006</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J211" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8204,26 +6781,15 @@
         <v>9484</v>
       </c>
       <c r="G212" t="n">
-        <v>1764020.6006</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J212" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8245,26 +6811,15 @@
         <v>19600</v>
       </c>
       <c r="G213" t="n">
-        <v>1783620.6006</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J213" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8286,26 +6841,15 @@
         <v>36900</v>
       </c>
       <c r="G214" t="n">
-        <v>1746720.6006</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J214" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8327,26 +6871,15 @@
         <v>49900</v>
       </c>
       <c r="G215" t="n">
-        <v>1796620.6006</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J215" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8368,26 +6901,15 @@
         <v>1000</v>
       </c>
       <c r="G216" t="n">
-        <v>1796620.6006</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J216" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8409,26 +6931,15 @@
         <v>35752.4973</v>
       </c>
       <c r="G217" t="n">
-        <v>1760868.1033</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J217" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8450,26 +6961,15 @@
         <v>34988.0379</v>
       </c>
       <c r="G218" t="n">
-        <v>1795856.1412</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J218" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8491,26 +6991,15 @@
         <v>72400</v>
       </c>
       <c r="G219" t="n">
-        <v>1868256.1412</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J219" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8532,26 +7021,15 @@
         <v>56182.9595</v>
       </c>
       <c r="G220" t="n">
-        <v>1868256.1412</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J220" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8573,26 +7051,15 @@
         <v>188865</v>
       </c>
       <c r="G221" t="n">
-        <v>2057121.1412</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J221" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8614,24 +7081,15 @@
         <v>41507.679</v>
       </c>
       <c r="G222" t="n">
-        <v>2015613.4622</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1.047980132450331</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8653,18 +7111,15 @@
         <v>29.3167</v>
       </c>
       <c r="G223" t="n">
-        <v>2015642.7789</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8686,18 +7141,15 @@
         <v>11642.8571</v>
       </c>
       <c r="G224" t="n">
-        <v>2015642.7789</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8719,18 +7171,15 @@
         <v>11613.75</v>
       </c>
       <c r="G225" t="n">
-        <v>2004029.0289</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8752,18 +7201,15 @@
         <v>9879.1034</v>
       </c>
       <c r="G226" t="n">
-        <v>2004029.0289</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8785,18 +7231,15 @@
         <v>6695.8634</v>
       </c>
       <c r="G227" t="n">
-        <v>2004029.0289</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8818,18 +7261,15 @@
         <v>4264.5341</v>
       </c>
       <c r="G228" t="n">
-        <v>2008293.563</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8851,18 +7291,15 @@
         <v>4500.915</v>
       </c>
       <c r="G229" t="n">
-        <v>2003792.648</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8884,18 +7321,15 @@
         <v>1000</v>
       </c>
       <c r="G230" t="n">
-        <v>2003792.648</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8917,18 +7351,15 @@
         <v>18500</v>
       </c>
       <c r="G231" t="n">
-        <v>1985292.648</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8950,18 +7381,15 @@
         <v>83560.6303</v>
       </c>
       <c r="G232" t="n">
-        <v>1985292.648</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8983,18 +7411,15 @@
         <v>10</v>
       </c>
       <c r="G233" t="n">
-        <v>1985302.648</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9016,18 +7441,15 @@
         <v>88717.9359</v>
       </c>
       <c r="G234" t="n">
-        <v>1896584.7121</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9049,18 +7471,15 @@
         <v>14000</v>
       </c>
       <c r="G235" t="n">
-        <v>1882584.7121</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9082,18 +7501,15 @@
         <v>2220</v>
       </c>
       <c r="G236" t="n">
-        <v>1882584.7121</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9115,18 +7531,15 @@
         <v>2222</v>
       </c>
       <c r="G237" t="n">
-        <v>1884806.7121</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9148,18 +7561,15 @@
         <v>32669.1467</v>
       </c>
       <c r="G238" t="n">
-        <v>1852137.5654</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9181,18 +7591,15 @@
         <v>245628.7892</v>
       </c>
       <c r="G239" t="n">
-        <v>2097766.3546</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9214,18 +7621,15 @@
         <v>1983.1758</v>
       </c>
       <c r="G240" t="n">
-        <v>2095783.1788</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9247,18 +7651,15 @@
         <v>32544.0251</v>
       </c>
       <c r="G241" t="n">
-        <v>2128327.2039</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9280,18 +7681,15 @@
         <v>5679.925</v>
       </c>
       <c r="G242" t="n">
-        <v>2134007.1289</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9313,18 +7711,15 @@
         <v>5171.618</v>
       </c>
       <c r="G243" t="n">
-        <v>2134007.1289</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9346,18 +7741,15 @@
         <v>13500</v>
       </c>
       <c r="G244" t="n">
-        <v>2134007.1289</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9379,18 +7771,15 @@
         <v>50</v>
       </c>
       <c r="G245" t="n">
-        <v>2133957.1289</v>
-      </c>
-      <c r="H245" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9412,18 +7801,15 @@
         <v>12</v>
       </c>
       <c r="G246" t="n">
-        <v>2133969.1289</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9445,18 +7831,15 @@
         <v>14726.4279</v>
       </c>
       <c r="G247" t="n">
-        <v>2133969.1289</v>
-      </c>
-      <c r="H247" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9478,18 +7861,15 @@
         <v>97709.125</v>
       </c>
       <c r="G248" t="n">
-        <v>2133969.1289</v>
-      </c>
-      <c r="H248" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9511,18 +7891,15 @@
         <v>76310.5365</v>
       </c>
       <c r="G249" t="n">
-        <v>2057658.5924</v>
-      </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9544,18 +7921,15 @@
         <v>82878</v>
       </c>
       <c r="G250" t="n">
-        <v>2140536.5924</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9577,18 +7951,15 @@
         <v>5008.8665</v>
       </c>
       <c r="G251" t="n">
-        <v>2135527.7259</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9610,18 +7981,15 @@
         <v>5022.4232</v>
       </c>
       <c r="G252" t="n">
-        <v>2135527.7259</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9643,18 +8011,15 @@
         <v>4297.3021</v>
       </c>
       <c r="G253" t="n">
-        <v>2135527.7259</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9676,18 +8041,15 @@
         <v>5082.4369</v>
       </c>
       <c r="G254" t="n">
-        <v>2135527.7259</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9709,18 +8071,15 @@
         <v>25853.1329</v>
       </c>
       <c r="G255" t="n">
-        <v>2161380.8588</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9742,18 +8101,15 @@
         <v>5266.458</v>
       </c>
       <c r="G256" t="n">
-        <v>2161380.8588</v>
-      </c>
-      <c r="H256" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9775,18 +8131,15 @@
         <v>20000</v>
       </c>
       <c r="G257" t="n">
-        <v>2161380.8588</v>
-      </c>
-      <c r="H257" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9808,18 +8161,15 @@
         <v>18100</v>
       </c>
       <c r="G258" t="n">
-        <v>2143280.8588</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9841,18 +8191,15 @@
         <v>10800</v>
       </c>
       <c r="G259" t="n">
-        <v>2143280.8588</v>
-      </c>
-      <c r="H259" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9874,18 +8221,15 @@
         <v>63378.243</v>
       </c>
       <c r="G260" t="n">
-        <v>2143280.8588</v>
-      </c>
-      <c r="H260" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9907,18 +8251,15 @@
         <v>22560.4639</v>
       </c>
       <c r="G261" t="n">
-        <v>2120720.3949</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9940,18 +8281,15 @@
         <v>48732.426</v>
       </c>
       <c r="G262" t="n">
-        <v>2120720.3949</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9973,18 +8311,15 @@
         <v>28997.093</v>
       </c>
       <c r="G263" t="n">
-        <v>2120720.3949</v>
-      </c>
-      <c r="H263" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10006,18 +8341,15 @@
         <v>3172.1102</v>
       </c>
       <c r="G264" t="n">
-        <v>2123892.5051</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10039,18 +8371,15 @@
         <v>94755.9748</v>
       </c>
       <c r="G265" t="n">
-        <v>2123892.5051</v>
-      </c>
-      <c r="H265" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10072,18 +8401,15 @@
         <v>21587.4198</v>
       </c>
       <c r="G266" t="n">
-        <v>2102305.0853</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10105,18 +8431,15 @@
         <v>62288.8125</v>
       </c>
       <c r="G267" t="n">
-        <v>2164593.8978</v>
-      </c>
-      <c r="H267" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10138,18 +8461,15 @@
         <v>8160</v>
       </c>
       <c r="G268" t="n">
-        <v>2164593.8978</v>
-      </c>
-      <c r="H268" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10171,18 +8491,15 @@
         <v>40088</v>
       </c>
       <c r="G269" t="n">
-        <v>2124505.8978</v>
-      </c>
-      <c r="H269" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10204,18 +8521,15 @@
         <v>35101.3478</v>
       </c>
       <c r="G270" t="n">
-        <v>2124505.8978</v>
-      </c>
-      <c r="H270" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10237,18 +8551,15 @@
         <v>4721.8354</v>
       </c>
       <c r="G271" t="n">
-        <v>2124505.8978</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10270,18 +8581,15 @@
         <v>3754.9367</v>
       </c>
       <c r="G272" t="n">
-        <v>2124505.8978</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10303,18 +8611,15 @@
         <v>65288.6545</v>
       </c>
       <c r="G273" t="n">
-        <v>2059217.2433</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10336,18 +8641,15 @@
         <v>84089.0122</v>
       </c>
       <c r="G274" t="n">
-        <v>2059217.2433</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10369,18 +8671,15 @@
         <v>27642.7029</v>
       </c>
       <c r="G275" t="n">
-        <v>2031574.540400001</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10402,18 +8701,15 @@
         <v>18565.2498</v>
       </c>
       <c r="G276" t="n">
-        <v>2031574.540400001</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10435,18 +8731,15 @@
         <v>5768.8849</v>
       </c>
       <c r="G277" t="n">
-        <v>2031574.540400001</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10468,18 +8761,15 @@
         <v>71236.43150000001</v>
       </c>
       <c r="G278" t="n">
-        <v>2031574.540400001</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10501,18 +8791,15 @@
         <v>22972.5838</v>
       </c>
       <c r="G279" t="n">
-        <v>2008601.956600001</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10534,18 +8821,15 @@
         <v>45956</v>
       </c>
       <c r="G280" t="n">
-        <v>2054557.956600001</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10567,18 +8851,15 @@
         <v>62526.2823</v>
       </c>
       <c r="G281" t="n">
-        <v>1992031.674300001</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10600,18 +8881,15 @@
         <v>34900.5678</v>
       </c>
       <c r="G282" t="n">
-        <v>1992031.674300001</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10633,18 +8911,15 @@
         <v>58000</v>
       </c>
       <c r="G283" t="n">
-        <v>2050031.674300001</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
